--- a/Documentazione/Stima Dimensionale.xlsx
+++ b/Documentazione/Stima Dimensionale.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documenti\Big Data Management Progetto\BIG-DATA-MANAGEMENT\Documentazione\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E8ED008-8A71-4AE7-B6F7-9108434AA089}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97106527-0651-4C16-AC7C-39173FB727A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4563AA14-1549-40CC-9750-27BCFC0E19C8}"/>
   </bookViews>
   <sheets>
     <sheet name="localhost_ wordpress" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="ExternalData_1" localSheetId="0" hidden="1">'localhost_ wordpress'!$A$1:$E$17</definedName>
@@ -93,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="119">
   <si>
     <t>Professore/Studente (wp_users)</t>
   </si>
@@ -409,14 +411,56 @@
     <t>65535, stesso discorso di content</t>
   </si>
   <si>
-    <t>65535 stesso discorso di content</t>
+    <t>dati scuole</t>
+  </si>
+  <si>
+    <t>numero alunni totale</t>
+  </si>
+  <si>
+    <t>numero scuole</t>
+  </si>
+  <si>
+    <t>ore di lezione all'anno (singola sezione di una scuola)</t>
+  </si>
+  <si>
+    <t>numero medio sezioni per scuola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">numero totale di sezioni </t>
+  </si>
+  <si>
+    <t>supponiamo per buona misura 1 MB (grande sovrastima)</t>
+  </si>
+  <si>
+    <t>totale:</t>
+  </si>
+  <si>
+    <t>(bytes)</t>
+  </si>
+  <si>
+    <t>GB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRAFICO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">POPOLAMENTO INIZIALE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNA SOLA SEZIONE CON 25 ALUNNI E 7 PROFESSORI </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNA SCUOLA CON I SUOI DATI </t>
+  </si>
+  <si>
+    <t>Scuola ()</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -429,6 +473,13 @@
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -451,10 +502,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -483,6 +535,171 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2152650" cy="1814599"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FC862E7-187E-4924-8EC1-BF18E19219AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12115800" y="361950"/>
+          <a:ext cx="2152650" cy="1814599"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100"/>
+            <a:t>Per una sola</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" baseline="0"/>
+            <a:t> sezione</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" baseline="0"/>
+            <a:t>25 alunni</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" baseline="0"/>
+            <a:t>7 professori</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100"/>
+            <a:t>per</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" baseline="0"/>
+            <a:t> un anno (960 ore)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" baseline="0"/>
+            <a:t>1 post per ogni ora di lezione</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="it-IT" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="it-IT" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="it-IT" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="it-IT" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="it-IT" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>96965</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>115193</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AB2B16E-097C-426A-AC1C-A7DBBB342BFF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8848725" y="0"/>
+          <a:ext cx="12288965" cy="6401693"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -815,7 +1032,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AD4317F-1194-4DBE-A226-C8A3F783138C}">
   <dimension ref="A1:W36"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E4" workbookViewId="0">
       <selection activeCell="I22" sqref="I22:I36"/>
     </sheetView>
   </sheetViews>
@@ -1472,20 +1689,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9EA74DE-5AFB-4B1A-B5BF-A35F66F07F1A}">
-  <dimension ref="A1:AT95"/>
+  <dimension ref="A1:AT96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.42578125" customWidth="1"/>
     <col min="2" max="2" width="41.28515625" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" customWidth="1"/>
+    <col min="3" max="3" width="53" customWidth="1"/>
+    <col min="4" max="4" width="51.28515625" customWidth="1"/>
+    <col min="5" max="5" width="30" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>53</v>
       </c>
@@ -1496,40 +1717,62 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="F2">
-        <f>SUM(C3:C54)</f>
-        <v>134120</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <f>SUM(C:C)</f>
+        <v>2427877</v>
+      </c>
+      <c r="G2" t="s">
+        <v>112</v>
+      </c>
+      <c r="H2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>55</v>
       </c>
       <c r="C3">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <f>(25+7)*D13</f>
+        <v>34880</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C4">
         <v>60</v>
       </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <f>960*D39</f>
+        <v>2265840000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C5">
         <v>255</v>
       </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <f>G4+G3</f>
+        <v>2265874880</v>
+      </c>
+      <c r="H5">
+        <f>G5/(1024*1024*1024)</f>
+        <v>2.1102604269981384</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>43</v>
       </c>
@@ -1537,7 +1780,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>44</v>
       </c>
@@ -1545,7 +1788,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>45</v>
       </c>
@@ -1553,7 +1796,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>46</v>
       </c>
@@ -1561,7 +1804,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>47</v>
       </c>
@@ -1569,7 +1812,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>48</v>
       </c>
@@ -1577,7 +1820,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>49</v>
       </c>
@@ -1585,53 +1828,31 @@
         <v>250</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D13">
+        <f>SUM(C3:C12)</f>
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="C15">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B16" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="C16">
         <v>8</v>
       </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
-      <c r="U16" s="2"/>
-      <c r="V16" s="2"/>
-      <c r="W16" s="2"/>
-      <c r="X16" s="2"/>
-      <c r="Y16" s="2"/>
-      <c r="Z16" s="2"/>
-      <c r="AA16" s="2"/>
-      <c r="AB16" s="2"/>
     </row>
     <row r="17" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C17">
         <v>8</v>
@@ -1662,7 +1883,7 @@
     </row>
     <row r="18" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C18">
         <v>8</v>
@@ -1693,10 +1914,10 @@
     </row>
     <row r="19" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C19" t="s">
-        <v>102</v>
+        <v>58</v>
+      </c>
+      <c r="C19">
+        <v>8</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -1724,12 +1945,18 @@
     </row>
     <row r="20" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C20">
-        <v>65535</v>
-      </c>
-      <c r="F20" s="2"/>
+        <f>1024*1024</f>
+        <v>1048576</v>
+      </c>
+      <c r="D20" t="s">
+        <v>110</v>
+      </c>
+      <c r="E20" t="s">
+        <v>102</v>
+      </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
@@ -1755,10 +1982,10 @@
     </row>
     <row r="21" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C21" t="s">
-        <v>103</v>
+        <v>60</v>
+      </c>
+      <c r="C21">
+        <v>65535</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -1786,10 +2013,13 @@
     </row>
     <row r="22" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C22">
-        <v>20</v>
+        <v>65535</v>
+      </c>
+      <c r="D22" t="s">
+        <v>103</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -1817,7 +2047,7 @@
     </row>
     <row r="23" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C23">
         <v>20</v>
@@ -1848,7 +2078,7 @@
     </row>
     <row r="24" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C24">
         <v>20</v>
@@ -1879,10 +2109,10 @@
     </row>
     <row r="25" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C25">
-        <v>255</v>
+        <v>20</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -1910,10 +2140,10 @@
     </row>
     <row r="26" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C26">
-        <v>200</v>
+        <v>255</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -1941,10 +2171,10 @@
     </row>
     <row r="27" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C27" t="s">
-        <v>104</v>
+        <v>66</v>
+      </c>
+      <c r="C27">
+        <v>200</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
@@ -1972,10 +2202,10 @@
     </row>
     <row r="28" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C28" t="s">
-        <v>103</v>
+        <v>67</v>
+      </c>
+      <c r="C28">
+        <v>65535</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -2003,10 +2233,10 @@
     </row>
     <row r="29" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C29">
-        <v>8</v>
+        <v>65535</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -2034,7 +2264,7 @@
     </row>
     <row r="30" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C30">
         <v>8</v>
@@ -2065,10 +2295,10 @@
     </row>
     <row r="31" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C31" t="s">
-        <v>102</v>
+        <v>70</v>
+      </c>
+      <c r="C31">
+        <v>8</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -2096,10 +2326,11 @@
     </row>
     <row r="32" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C32">
-        <v>8</v>
+        <f>1024*1024</f>
+        <v>1048576</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
@@ -2127,10 +2358,10 @@
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C33">
-        <v>255</v>
+        <v>8</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
@@ -2158,10 +2389,10 @@
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C34">
-        <v>4</v>
+        <v>255</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
@@ -2189,10 +2420,10 @@
     </row>
     <row r="35" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C35">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
@@ -2220,10 +2451,10 @@
     </row>
     <row r="36" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C36">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
@@ -2251,10 +2482,10 @@
     </row>
     <row r="37" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C37">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
@@ -2281,6 +2512,12 @@
       <c r="AB37" s="2"/>
     </row>
     <row r="38" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B38" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38">
+        <v>8</v>
+      </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
@@ -2306,8 +2543,12 @@
       <c r="AB38" s="2"/>
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>79</v>
+      <c r="C39" t="s">
+        <v>111</v>
+      </c>
+      <c r="D39">
+        <f>SUM(C16:C38)</f>
+        <v>2360250</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
@@ -2334,11 +2575,8 @@
       <c r="AB39" s="2"/>
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B40" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C40">
-        <v>8</v>
+      <c r="A40" t="s">
+        <v>79</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
@@ -2366,7 +2604,7 @@
     </row>
     <row r="41" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C41">
         <v>8</v>
@@ -2397,10 +2635,10 @@
     </row>
     <row r="42" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C42">
-        <v>255</v>
+        <v>8</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
@@ -2428,10 +2666,10 @@
     </row>
     <row r="43" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C43">
-        <v>100</v>
+        <v>255</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
@@ -2459,10 +2697,10 @@
     </row>
     <row r="44" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C44">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
@@ -2490,10 +2728,10 @@
     </row>
     <row r="45" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C45">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
@@ -2521,10 +2759,10 @@
     </row>
     <row r="46" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B46" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C46">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
@@ -2552,7 +2790,7 @@
     </row>
     <row r="47" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B47" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C47">
         <v>8</v>
@@ -2583,10 +2821,10 @@
     </row>
     <row r="48" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B48" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C48">
-        <v>65535</v>
+        <v>8</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
@@ -2612,12 +2850,12 @@
       <c r="AA48" s="2"/>
       <c r="AB48" s="2"/>
     </row>
-    <row r="49" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C49">
-        <v>4</v>
+        <v>65535</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
@@ -2643,12 +2881,12 @@
       <c r="AA49" s="2"/>
       <c r="AB49" s="2"/>
     </row>
-    <row r="50" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B50" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C50">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
@@ -2674,12 +2912,12 @@
       <c r="AA50" s="2"/>
       <c r="AB50" s="2"/>
     </row>
-    <row r="51" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C51">
-        <v>255</v>
+        <v>20</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
@@ -2705,12 +2943,12 @@
       <c r="AA51" s="2"/>
       <c r="AB51" s="2"/>
     </row>
-    <row r="52" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C52">
-        <v>20</v>
+        <v>255</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
@@ -2736,12 +2974,12 @@
       <c r="AA52" s="2"/>
       <c r="AB52" s="2"/>
     </row>
-    <row r="53" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B53" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C53">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
@@ -2767,9 +3005,9 @@
       <c r="AA53" s="2"/>
       <c r="AB53" s="2"/>
     </row>
-    <row r="54" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B54" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C54">
         <v>8</v>
@@ -2798,7 +3036,13 @@
       <c r="AA54" s="2"/>
       <c r="AB54" s="2"/>
     </row>
-    <row r="55" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B55" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C55">
+        <v>8</v>
+      </c>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
@@ -2823,47 +3067,42 @@
       <c r="AA55" s="2"/>
       <c r="AB55" s="2"/>
     </row>
-    <row r="73" spans="7:46" x14ac:dyDescent="0.25">
-      <c r="G73" s="2"/>
-      <c r="H73" s="2"/>
-      <c r="I73" s="2"/>
-      <c r="J73" s="2"/>
-      <c r="K73" s="2"/>
-      <c r="L73" s="2"/>
-      <c r="M73" s="2"/>
-      <c r="N73" s="2"/>
-      <c r="O73" s="2"/>
-      <c r="P73" s="2"/>
-      <c r="Q73" s="2"/>
-      <c r="R73" s="2"/>
-      <c r="S73" s="2"/>
-      <c r="T73" s="2"/>
-      <c r="U73" s="2"/>
-      <c r="V73" s="2"/>
-      <c r="W73" s="2"/>
-      <c r="X73" s="2"/>
-      <c r="Y73" s="2"/>
-      <c r="Z73" s="2"/>
-      <c r="AA73" s="2"/>
-      <c r="AB73" s="2"/>
-      <c r="AC73" s="2"/>
-      <c r="AD73" s="2"/>
-      <c r="AE73" s="2"/>
-      <c r="AF73" s="2"/>
-      <c r="AG73" s="2"/>
-      <c r="AH73" s="2"/>
-      <c r="AI73" s="2"/>
-      <c r="AJ73" s="2"/>
-      <c r="AK73" s="2"/>
-      <c r="AL73" s="2"/>
-      <c r="AM73" s="2"/>
-      <c r="AN73" s="2"/>
-      <c r="AO73" s="2"/>
-      <c r="AP73" s="2"/>
-      <c r="AQ73" s="2"/>
-      <c r="AR73" s="2"/>
-      <c r="AS73" s="2"/>
-      <c r="AT73" s="2"/>
+    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
+        <v>111</v>
+      </c>
+      <c r="D56">
+        <f>SUM(C41:C55)</f>
+        <v>66537</v>
+      </c>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
+      <c r="P56" s="2"/>
+      <c r="Q56" s="2"/>
+      <c r="R56" s="2"/>
+      <c r="S56" s="2"/>
+      <c r="T56" s="2"/>
+      <c r="U56" s="2"/>
+      <c r="V56" s="2"/>
+      <c r="W56" s="2"/>
+      <c r="X56" s="2"/>
+      <c r="Y56" s="2"/>
+      <c r="Z56" s="2"/>
+      <c r="AA56" s="2"/>
+      <c r="AB56" s="2"/>
+    </row>
+    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="74" spans="7:46" x14ac:dyDescent="0.25">
       <c r="G74" s="2"/>
@@ -3789,6 +4028,152 @@
       <c r="AS95" s="2"/>
       <c r="AT95" s="2"/>
     </row>
+    <row r="96" spans="7:46" x14ac:dyDescent="0.25">
+      <c r="G96" s="2"/>
+      <c r="H96" s="2"/>
+      <c r="I96" s="2"/>
+      <c r="J96" s="2"/>
+      <c r="K96" s="2"/>
+      <c r="L96" s="2"/>
+      <c r="M96" s="2"/>
+      <c r="N96" s="2"/>
+      <c r="O96" s="2"/>
+      <c r="P96" s="2"/>
+      <c r="Q96" s="2"/>
+      <c r="R96" s="2"/>
+      <c r="S96" s="2"/>
+      <c r="T96" s="2"/>
+      <c r="U96" s="2"/>
+      <c r="V96" s="2"/>
+      <c r="W96" s="2"/>
+      <c r="X96" s="2"/>
+      <c r="Y96" s="2"/>
+      <c r="Z96" s="2"/>
+      <c r="AA96" s="2"/>
+      <c r="AB96" s="2"/>
+      <c r="AC96" s="2"/>
+      <c r="AD96" s="2"/>
+      <c r="AE96" s="2"/>
+      <c r="AF96" s="2"/>
+      <c r="AG96" s="2"/>
+      <c r="AH96" s="2"/>
+      <c r="AI96" s="2"/>
+      <c r="AJ96" s="2"/>
+      <c r="AK96" s="2"/>
+      <c r="AL96" s="2"/>
+      <c r="AM96" s="2"/>
+      <c r="AN96" s="2"/>
+      <c r="AO96" s="2"/>
+      <c r="AP96" s="2"/>
+      <c r="AQ96" s="2"/>
+      <c r="AR96" s="2"/>
+      <c r="AS96" s="2"/>
+      <c r="AT96" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46035686-ABDE-45EC-8408-2C0E0B0711CA}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="52.28515625" customWidth="1"/>
+    <col min="2" max="2" width="53" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2">
+        <v>2700000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5">
+        <v>123000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6">
+        <f>5*6*4*8</f>
+        <v>960</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A193714-DD7A-459A-8C67-E4D8B240C94F}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="50.5703125" customWidth="1"/>
+    <col min="3" max="3" width="83.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2">
+        <f>Sheet1!D13</f>
+        <v>1090</v>
+      </c>
+      <c r="C2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>117</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documentazione/Stima Dimensionale.xlsx
+++ b/Documentazione/Stima Dimensionale.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documenti\Big Data Management Progetto\BIG-DATA-MANAGEMENT\Documentazione\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\BIG-DATA-MANAGEMENT\Documentazione\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97106527-0651-4C16-AC7C-39173FB727A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFC7A5CB-853C-44AF-B0FA-83B4FCF9D6DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4563AA14-1549-40CC-9750-27BCFC0E19C8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{4563AA14-1549-40CC-9750-27BCFC0E19C8}"/>
   </bookViews>
   <sheets>
     <sheet name="localhost_ wordpress" sheetId="2" r:id="rId1"/>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="172">
   <si>
     <t>Professore/Studente (wp_users)</t>
   </si>
@@ -454,13 +454,172 @@
   </si>
   <si>
     <t>Scuola ()</t>
+  </si>
+  <si>
+    <t>idscuola</t>
+  </si>
+  <si>
+    <t>nome</t>
+  </si>
+  <si>
+    <t>indirizzo</t>
+  </si>
+  <si>
+    <t>codice</t>
+  </si>
+  <si>
+    <t>sezione</t>
+  </si>
+  <si>
+    <t>idsezione</t>
+  </si>
+  <si>
+    <t>lettera</t>
+  </si>
+  <si>
+    <t>anno</t>
+  </si>
+  <si>
+    <t>percorso_di_sudi</t>
+  </si>
+  <si>
+    <t>utente</t>
+  </si>
+  <si>
+    <t>idutente</t>
+  </si>
+  <si>
+    <t>cognome</t>
+  </si>
+  <si>
+    <t>cf</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>Lezione</t>
+  </si>
+  <si>
+    <t>idlezione</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>idprofessore</t>
+  </si>
+  <si>
+    <t>idutenteprofessore</t>
+  </si>
+  <si>
+    <t>titolo</t>
+  </si>
+  <si>
+    <t>trascrizione</t>
+  </si>
+  <si>
+    <t>contenuto</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>data_creazione</t>
+  </si>
+  <si>
+    <t>percorso</t>
+  </si>
+  <si>
+    <t>data_accettazione</t>
+  </si>
+  <si>
+    <t>argomento</t>
+  </si>
+  <si>
+    <t>idargomento</t>
+  </si>
+  <si>
+    <t>descrizione</t>
+  </si>
+  <si>
+    <t>anno_di_corso</t>
+  </si>
+  <si>
+    <t>materia_idmateria</t>
+  </si>
+  <si>
+    <t>materia</t>
+  </si>
+  <si>
+    <t>idmateria</t>
+  </si>
+  <si>
+    <t>tipo di scuola</t>
+  </si>
+  <si>
+    <t>totale utente</t>
+  </si>
+  <si>
+    <t>bytes</t>
+  </si>
+  <si>
+    <t>totale lezione</t>
+  </si>
+  <si>
+    <t xml:space="preserve">totale scuola </t>
+  </si>
+  <si>
+    <t>totale sezione</t>
+  </si>
+  <si>
+    <t>1 scuola</t>
+  </si>
+  <si>
+    <t>5 sezioni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 professori </t>
+  </si>
+  <si>
+    <t>25 alunni per sezione</t>
+  </si>
+  <si>
+    <t>(5 ore al giorno, 6 giorni a settimana, 4 settimane al mese, 8 mesi all' anno)</t>
+  </si>
+  <si>
+    <t>(GB)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 anni </t>
+  </si>
+  <si>
+    <t>3 anni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 anni </t>
+  </si>
+  <si>
+    <t xml:space="preserve">tasso di incremento annuo PER OGNI SEZIONE: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 anno </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Popolamento iniziale (CMS vuoto) </t>
+  </si>
+  <si>
+    <t>200 ore</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -477,6 +636,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -502,14 +669,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
@@ -537,14 +706,901 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Stima</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="it-IT" baseline="0"/>
+              <a:t> dimensionale </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Sheet3!$A$13,Sheet3!$A$20,Sheet3!$A$24:$A$26)</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Popolamento iniziale (CMS vuoto) </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1 anno </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2 anni </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3 anni</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4 anni </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet3!$B$13,Sheet3!$B$20,Sheet3!$B$24:$B$26)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.6530586183071136E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.533378720283508</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31.066757440567017</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>46.600136160850525</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>62.133514881134033</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4E13-424B-A400-547BB81C480A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="610975928"/>
+        <c:axId val="610976256"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="610975928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="610976256"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="610976256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="610975928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1129665</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2152650" cy="1814599"/>
     <xdr:sp macro="" textlink="">
@@ -560,7 +1616,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12115800" y="361950"/>
+          <a:off x="11630025" y="1497330"/>
           <a:ext cx="2152650" cy="1814599"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -698,8 +1754,45 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>5661660</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>148590</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Grafico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8B6ACA2-6E4C-432F-97BA-4148E0FE3141}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -734,7 +1827,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1036,16 +2129,16 @@
       <selection activeCell="I22" sqref="I22:I36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1062,7 +2155,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1079,7 +2172,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1096,7 +2189,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -1113,7 +2206,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -1130,7 +2223,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -1147,7 +2240,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
@@ -1164,7 +2257,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
@@ -1181,7 +2274,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
@@ -1198,7 +2291,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>25</v>
       </c>
@@ -1215,7 +2308,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
@@ -1232,7 +2325,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>29</v>
       </c>
@@ -1249,7 +2342,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>31</v>
       </c>
@@ -1266,7 +2359,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>33</v>
       </c>
@@ -1328,7 +2421,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>35</v>
       </c>
@@ -1390,7 +2483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>37</v>
       </c>
@@ -1407,7 +2500,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>39</v>
       </c>
@@ -1424,7 +2517,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="I18" s="2" t="s">
         <v>80</v>
       </c>
@@ -1471,7 +2564,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="I19" s="2">
         <v>1</v>
       </c>
@@ -1518,7 +2611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -1529,7 +2622,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -1542,7 +2635,7 @@
       </c>
       <c r="J22" s="2"/>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -1555,31 +2648,31 @@
       </c>
       <c r="J23" s="2"/>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="I24" s="2" t="s">
         <v>82</v>
       </c>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="I25" s="2" t="s">
         <v>83</v>
       </c>
       <c r="J25" s="2"/>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="I26" s="2" t="s">
         <v>84</v>
       </c>
       <c r="J26" s="2"/>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="I27" s="2" t="s">
         <v>85</v>
       </c>
       <c r="J27" s="2"/>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B28" s="2" t="s">
         <v>41</v>
       </c>
@@ -1590,7 +2683,7 @@
       </c>
       <c r="J28" s="2"/>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B29" s="2" t="s">
         <v>42</v>
       </c>
@@ -1601,7 +2694,7 @@
       </c>
       <c r="J29" s="2"/>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B30" s="2" t="s">
         <v>43</v>
       </c>
@@ -1612,7 +2705,7 @@
       </c>
       <c r="J30" s="2"/>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B31" s="2" t="s">
         <v>44</v>
       </c>
@@ -1623,7 +2716,7 @@
       </c>
       <c r="J31" s="2"/>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B32" s="2" t="s">
         <v>45</v>
       </c>
@@ -1634,7 +2727,7 @@
       </c>
       <c r="J32" s="2"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B33" s="2" t="s">
         <v>46</v>
       </c>
@@ -1645,7 +2738,7 @@
       </c>
       <c r="J33" s="2"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B34" s="2" t="s">
         <v>47</v>
       </c>
@@ -1656,7 +2749,7 @@
       </c>
       <c r="J34" s="2"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B35" s="2" t="s">
         <v>48</v>
       </c>
@@ -1667,7 +2760,7 @@
       </c>
       <c r="J35" s="2"/>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B36" s="2" t="s">
         <v>49</v>
       </c>
@@ -1689,24 +2782,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9EA74DE-5AFB-4B1A-B5BF-A35F66F07F1A}">
-  <dimension ref="A1:AT96"/>
+  <dimension ref="A1:AT139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.42578125" customWidth="1"/>
-    <col min="2" max="2" width="41.28515625" customWidth="1"/>
-    <col min="3" max="3" width="53" customWidth="1"/>
-    <col min="4" max="4" width="51.28515625" customWidth="1"/>
+    <col min="1" max="1" width="35.44140625" customWidth="1"/>
+    <col min="2" max="2" width="41.33203125" customWidth="1"/>
+    <col min="3" max="3" width="23.109375" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
     <col min="5" max="5" width="30" customWidth="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="29.77734375" customWidth="1"/>
+    <col min="7" max="7" width="18.21875" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>53</v>
       </c>
@@ -1716,14 +2810,20 @@
       <c r="C1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="D2">
-        <f>SUM(C:C)</f>
-        <v>2427877</v>
+      <c r="E2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F2">
+        <f>SUM(D13,D22)</f>
+        <v>2210</v>
       </c>
       <c r="G2" t="s">
         <v>112</v>
@@ -1732,36 +2832,57 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>55</v>
       </c>
       <c r="C3">
         <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F3">
+        <f>SUM(D49,D58,D67)</f>
+        <v>3474758</v>
       </c>
       <c r="G3">
         <f>(25+7)*D13</f>
         <v>34880</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C4">
         <v>60</v>
       </c>
+      <c r="E4" t="s">
+        <v>157</v>
+      </c>
+      <c r="F4">
+        <f>SUM(D82,D106)</f>
+        <v>920</v>
+      </c>
       <c r="G4">
-        <f>960*D39</f>
+        <f>960*D49</f>
         <v>2265840000</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C5">
         <v>255</v>
+      </c>
+      <c r="E5" t="s">
+        <v>158</v>
+      </c>
+      <c r="F5">
+        <f>D112</f>
+        <v>214</v>
       </c>
       <c r="G5">
         <f>G4+G3</f>
@@ -1772,7 +2893,7 @@
         <v>2.1102604269981384</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>43</v>
       </c>
@@ -1780,7 +2901,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>44</v>
       </c>
@@ -1788,7 +2909,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>45</v>
       </c>
@@ -1796,7 +2917,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>46</v>
       </c>
@@ -1804,7 +2925,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>47</v>
       </c>
@@ -1812,7 +2933,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
         <v>48</v>
       </c>
@@ -1820,7 +2941,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
         <v>49</v>
       </c>
@@ -1828,7 +2949,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>111</v>
       </c>
@@ -1837,344 +2958,106 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="4"/>
+      <c r="B15" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="4"/>
+      <c r="B16" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A17" s="4"/>
+      <c r="B17" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A18" s="4"/>
+      <c r="B18" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A19" s="4"/>
+      <c r="B19" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C19">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A20" s="4"/>
+      <c r="B20" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C20">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A21" s="4"/>
+      <c r="B21" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C21">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A22" s="4"/>
+      <c r="C22" t="s">
+        <v>111</v>
+      </c>
+      <c r="D22">
+        <f>SUM(C15:C21)</f>
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A23" s="4"/>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="2" t="s">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B26" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C16">
+      <c r="C26">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B27" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C17">
+      <c r="C27">
         <v>8</v>
-      </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
-      <c r="T17" s="2"/>
-      <c r="U17" s="2"/>
-      <c r="V17" s="2"/>
-      <c r="W17" s="2"/>
-      <c r="X17" s="2"/>
-      <c r="Y17" s="2"/>
-      <c r="Z17" s="2"/>
-      <c r="AA17" s="2"/>
-      <c r="AB17" s="2"/>
-    </row>
-    <row r="18" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B18" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18">
-        <v>8</v>
-      </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
-      <c r="T18" s="2"/>
-      <c r="U18" s="2"/>
-      <c r="V18" s="2"/>
-      <c r="W18" s="2"/>
-      <c r="X18" s="2"/>
-      <c r="Y18" s="2"/>
-      <c r="Z18" s="2"/>
-      <c r="AA18" s="2"/>
-      <c r="AB18" s="2"/>
-    </row>
-    <row r="19" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C19">
-        <v>8</v>
-      </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
-      <c r="S19" s="2"/>
-      <c r="T19" s="2"/>
-      <c r="U19" s="2"/>
-      <c r="V19" s="2"/>
-      <c r="W19" s="2"/>
-      <c r="X19" s="2"/>
-      <c r="Y19" s="2"/>
-      <c r="Z19" s="2"/>
-      <c r="AA19" s="2"/>
-      <c r="AB19" s="2"/>
-    </row>
-    <row r="20" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B20" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20">
-        <f>1024*1024</f>
-        <v>1048576</v>
-      </c>
-      <c r="D20" t="s">
-        <v>110</v>
-      </c>
-      <c r="E20" t="s">
-        <v>102</v>
-      </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
-      <c r="S20" s="2"/>
-      <c r="T20" s="2"/>
-      <c r="U20" s="2"/>
-      <c r="V20" s="2"/>
-      <c r="W20" s="2"/>
-      <c r="X20" s="2"/>
-      <c r="Y20" s="2"/>
-      <c r="Z20" s="2"/>
-      <c r="AA20" s="2"/>
-      <c r="AB20" s="2"/>
-    </row>
-    <row r="21" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B21" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C21">
-        <v>65535</v>
-      </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="2"/>
-      <c r="S21" s="2"/>
-      <c r="T21" s="2"/>
-      <c r="U21" s="2"/>
-      <c r="V21" s="2"/>
-      <c r="W21" s="2"/>
-      <c r="X21" s="2"/>
-      <c r="Y21" s="2"/>
-      <c r="Z21" s="2"/>
-      <c r="AA21" s="2"/>
-      <c r="AB21" s="2"/>
-    </row>
-    <row r="22" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B22" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C22">
-        <v>65535</v>
-      </c>
-      <c r="D22" t="s">
-        <v>103</v>
-      </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
-      <c r="U22" s="2"/>
-      <c r="V22" s="2"/>
-      <c r="W22" s="2"/>
-      <c r="X22" s="2"/>
-      <c r="Y22" s="2"/>
-      <c r="Z22" s="2"/>
-      <c r="AA22" s="2"/>
-      <c r="AB22" s="2"/>
-    </row>
-    <row r="23" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B23" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23">
-        <v>20</v>
-      </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="2"/>
-      <c r="S23" s="2"/>
-      <c r="T23" s="2"/>
-      <c r="U23" s="2"/>
-      <c r="V23" s="2"/>
-      <c r="W23" s="2"/>
-      <c r="X23" s="2"/>
-      <c r="Y23" s="2"/>
-      <c r="Z23" s="2"/>
-      <c r="AA23" s="2"/>
-      <c r="AB23" s="2"/>
-    </row>
-    <row r="24" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B24" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C24">
-        <v>20</v>
-      </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="2"/>
-      <c r="S24" s="2"/>
-      <c r="T24" s="2"/>
-      <c r="U24" s="2"/>
-      <c r="V24" s="2"/>
-      <c r="W24" s="2"/>
-      <c r="X24" s="2"/>
-      <c r="Y24" s="2"/>
-      <c r="Z24" s="2"/>
-      <c r="AA24" s="2"/>
-      <c r="AB24" s="2"/>
-    </row>
-    <row r="25" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B25" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C25">
-        <v>20</v>
-      </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="2"/>
-      <c r="S25" s="2"/>
-      <c r="T25" s="2"/>
-      <c r="U25" s="2"/>
-      <c r="V25" s="2"/>
-      <c r="W25" s="2"/>
-      <c r="X25" s="2"/>
-      <c r="Y25" s="2"/>
-      <c r="Z25" s="2"/>
-      <c r="AA25" s="2"/>
-      <c r="AB25" s="2"/>
-    </row>
-    <row r="26" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B26" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C26">
-        <v>255</v>
-      </c>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
-      <c r="R26" s="2"/>
-      <c r="S26" s="2"/>
-      <c r="T26" s="2"/>
-      <c r="U26" s="2"/>
-      <c r="V26" s="2"/>
-      <c r="W26" s="2"/>
-      <c r="X26" s="2"/>
-      <c r="Y26" s="2"/>
-      <c r="Z26" s="2"/>
-      <c r="AA26" s="2"/>
-      <c r="AB26" s="2"/>
-    </row>
-    <row r="27" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B27" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C27">
-        <v>200</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
@@ -2200,12 +3083,12 @@
       <c r="AA27" s="2"/>
       <c r="AB27" s="2"/>
     </row>
-    <row r="28" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B28" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C28">
-        <v>65535</v>
+        <v>8</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -2231,12 +3114,12 @@
       <c r="AA28" s="2"/>
       <c r="AB28" s="2"/>
     </row>
-    <row r="29" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B29" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C29">
-        <v>65535</v>
+        <v>8</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -2262,14 +3145,20 @@
       <c r="AA29" s="2"/>
       <c r="AB29" s="2"/>
     </row>
-    <row r="30" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B30" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C30">
-        <v>8</v>
-      </c>
-      <c r="F30" s="2"/>
+        <f>1024*1024</f>
+        <v>1048576</v>
+      </c>
+      <c r="D30" t="s">
+        <v>110</v>
+      </c>
+      <c r="E30" t="s">
+        <v>102</v>
+      </c>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
@@ -2293,12 +3182,12 @@
       <c r="AA30" s="2"/>
       <c r="AB30" s="2"/>
     </row>
-    <row r="31" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B31" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C31">
-        <v>8</v>
+        <v>65535</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -2324,13 +3213,15 @@
       <c r="AA31" s="2"/>
       <c r="AB31" s="2"/>
     </row>
-    <row r="32" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B32" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C32">
-        <f>1024*1024</f>
-        <v>1048576</v>
+        <v>65535</v>
+      </c>
+      <c r="D32" t="s">
+        <v>103</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
@@ -2356,12 +3247,12 @@
       <c r="AA32" s="2"/>
       <c r="AB32" s="2"/>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B33" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C33">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
@@ -2387,12 +3278,12 @@
       <c r="AA33" s="2"/>
       <c r="AB33" s="2"/>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B34" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C34">
-        <v>255</v>
+        <v>20</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
@@ -2418,12 +3309,12 @@
       <c r="AA34" s="2"/>
       <c r="AB34" s="2"/>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B35" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C35">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
@@ -2449,12 +3340,12 @@
       <c r="AA35" s="2"/>
       <c r="AB35" s="2"/>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B36" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C36">
-        <v>20</v>
+        <v>255</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
@@ -2480,12 +3371,12 @@
       <c r="AA36" s="2"/>
       <c r="AB36" s="2"/>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B37" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C37">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
@@ -2511,12 +3402,12 @@
       <c r="AA37" s="2"/>
       <c r="AB37" s="2"/>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B38" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C38">
-        <v>8</v>
+        <v>65535</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
@@ -2542,13 +3433,12 @@
       <c r="AA38" s="2"/>
       <c r="AB38" s="2"/>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="C39" t="s">
-        <v>111</v>
-      </c>
-      <c r="D39">
-        <f>SUM(C16:C38)</f>
-        <v>2360250</v>
+    <row r="39" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B39" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C39">
+        <v>65535</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
@@ -2574,9 +3464,12 @@
       <c r="AA39" s="2"/>
       <c r="AB39" s="2"/>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>79</v>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B40" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C40">
+        <v>8</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
@@ -2602,9 +3495,9 @@
       <c r="AA40" s="2"/>
       <c r="AB40" s="2"/>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B41" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C41">
         <v>8</v>
@@ -2633,12 +3526,13 @@
       <c r="AA41" s="2"/>
       <c r="AB41" s="2"/>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B42" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C42">
-        <v>8</v>
+        <f>1024*1024</f>
+        <v>1048576</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
@@ -2664,12 +3558,12 @@
       <c r="AA42" s="2"/>
       <c r="AB42" s="2"/>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B43" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C43">
-        <v>255</v>
+        <v>8</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
@@ -2695,12 +3589,12 @@
       <c r="AA43" s="2"/>
       <c r="AB43" s="2"/>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B44" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C44">
-        <v>100</v>
+        <v>255</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
@@ -2726,12 +3620,12 @@
       <c r="AA44" s="2"/>
       <c r="AB44" s="2"/>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B45" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C45">
-        <v>200</v>
+        <v>4</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
@@ -2757,12 +3651,12 @@
       <c r="AA45" s="2"/>
       <c r="AB45" s="2"/>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B46" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C46">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
@@ -2788,12 +3682,12 @@
       <c r="AA46" s="2"/>
       <c r="AB46" s="2"/>
     </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B47" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C47">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
@@ -2819,9 +3713,9 @@
       <c r="AA47" s="2"/>
       <c r="AB47" s="2"/>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B48" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C48">
         <v>8</v>
@@ -2850,12 +3744,13 @@
       <c r="AA48" s="2"/>
       <c r="AB48" s="2"/>
     </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B49" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C49">
-        <v>65535</v>
+    <row r="49" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="C49" t="s">
+        <v>111</v>
+      </c>
+      <c r="D49">
+        <f>SUM(C26:C48)</f>
+        <v>2360250</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
@@ -2881,12 +3776,9 @@
       <c r="AA49" s="2"/>
       <c r="AB49" s="2"/>
     </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B50" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C50">
-        <v>4</v>
+    <row r="50" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>134</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
@@ -2912,12 +3804,12 @@
       <c r="AA50" s="2"/>
       <c r="AB50" s="2"/>
     </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B51" s="2" t="s">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="C51">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
@@ -2943,12 +3835,12 @@
       <c r="AA51" s="2"/>
       <c r="AB51" s="2"/>
     </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B52" s="2" t="s">
-        <v>91</v>
+        <v>136</v>
       </c>
       <c r="C52">
-        <v>255</v>
+        <v>8</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
@@ -2974,12 +3866,12 @@
       <c r="AA52" s="2"/>
       <c r="AB52" s="2"/>
     </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B53" s="2" t="s">
-        <v>92</v>
+        <v>137</v>
       </c>
       <c r="C53">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
@@ -3005,12 +3897,12 @@
       <c r="AA53" s="2"/>
       <c r="AB53" s="2"/>
     </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B54" s="2" t="s">
-        <v>93</v>
+        <v>138</v>
       </c>
       <c r="C54">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
@@ -3036,12 +3928,12 @@
       <c r="AA54" s="2"/>
       <c r="AB54" s="2"/>
     </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B55" s="2" t="s">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="C55">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
@@ -3067,13 +3959,12 @@
       <c r="AA55" s="2"/>
       <c r="AB55" s="2"/>
     </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="C56" t="s">
-        <v>111</v>
-      </c>
-      <c r="D56">
-        <f>SUM(C41:C55)</f>
-        <v>66537</v>
+    <row r="56" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B56" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C56">
+        <v>45</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
@@ -3099,12 +3990,541 @@
       <c r="AA56" s="2"/>
       <c r="AB56" s="2"/>
     </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="74" spans="7:46" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B57" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C57">
+        <f>1024*1024</f>
+        <v>1048576</v>
+      </c>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
+      <c r="L57" s="2"/>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
+      <c r="P57" s="2"/>
+      <c r="Q57" s="2"/>
+      <c r="R57" s="2"/>
+      <c r="S57" s="2"/>
+      <c r="T57" s="2"/>
+      <c r="U57" s="2"/>
+      <c r="V57" s="2"/>
+      <c r="W57" s="2"/>
+      <c r="X57" s="2"/>
+      <c r="Y57" s="2"/>
+      <c r="Z57" s="2"/>
+      <c r="AA57" s="2"/>
+      <c r="AB57" s="2"/>
+    </row>
+    <row r="58" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B58" s="2"/>
+      <c r="D58">
+        <f>SUM(C51:C57)</f>
+        <v>1048645</v>
+      </c>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="2"/>
+      <c r="L58" s="2"/>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
+      <c r="P58" s="2"/>
+      <c r="Q58" s="2"/>
+      <c r="R58" s="2"/>
+      <c r="S58" s="2"/>
+      <c r="T58" s="2"/>
+      <c r="U58" s="2"/>
+      <c r="V58" s="2"/>
+      <c r="W58" s="2"/>
+      <c r="X58" s="2"/>
+      <c r="Y58" s="2"/>
+      <c r="Z58" s="2"/>
+      <c r="AA58" s="2"/>
+      <c r="AB58" s="2"/>
+    </row>
+    <row r="59" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>141</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+      <c r="K59" s="2"/>
+      <c r="L59" s="2"/>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
+      <c r="P59" s="2"/>
+      <c r="Q59" s="2"/>
+      <c r="R59" s="2"/>
+      <c r="S59" s="2"/>
+      <c r="T59" s="2"/>
+      <c r="U59" s="2"/>
+      <c r="V59" s="2"/>
+      <c r="W59" s="2"/>
+      <c r="X59" s="2"/>
+      <c r="Y59" s="2"/>
+      <c r="Z59" s="2"/>
+      <c r="AA59" s="2"/>
+      <c r="AB59" s="2"/>
+    </row>
+    <row r="60" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B60" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C60">
+        <v>4</v>
+      </c>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2"/>
+      <c r="L60" s="2"/>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
+      <c r="P60" s="2"/>
+      <c r="Q60" s="2"/>
+      <c r="R60" s="2"/>
+      <c r="S60" s="2"/>
+      <c r="T60" s="2"/>
+      <c r="U60" s="2"/>
+      <c r="V60" s="2"/>
+      <c r="W60" s="2"/>
+      <c r="X60" s="2"/>
+      <c r="Y60" s="2"/>
+      <c r="Z60" s="2"/>
+      <c r="AA60" s="2"/>
+      <c r="AB60" s="2"/>
+    </row>
+    <row r="61" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B61" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C61">
+        <v>300</v>
+      </c>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2"/>
+      <c r="L61" s="2"/>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
+      <c r="P61" s="2"/>
+      <c r="Q61" s="2"/>
+      <c r="R61" s="2"/>
+      <c r="S61" s="2"/>
+      <c r="T61" s="2"/>
+      <c r="U61" s="2"/>
+      <c r="V61" s="2"/>
+      <c r="W61" s="2"/>
+      <c r="X61" s="2"/>
+      <c r="Y61" s="2"/>
+      <c r="Z61" s="2"/>
+      <c r="AA61" s="2"/>
+      <c r="AB61" s="2"/>
+    </row>
+    <row r="62" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B62" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C62">
+        <v>8</v>
+      </c>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
+      <c r="K62" s="2"/>
+      <c r="L62" s="2"/>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
+      <c r="O62" s="2"/>
+      <c r="P62" s="2"/>
+      <c r="Q62" s="2"/>
+      <c r="R62" s="2"/>
+      <c r="S62" s="2"/>
+      <c r="T62" s="2"/>
+      <c r="U62" s="2"/>
+      <c r="V62" s="2"/>
+      <c r="W62" s="2"/>
+      <c r="X62" s="2"/>
+      <c r="Y62" s="2"/>
+      <c r="Z62" s="2"/>
+      <c r="AA62" s="2"/>
+      <c r="AB62" s="2"/>
+    </row>
+    <row r="63" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B63" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C63">
+        <v>65535</v>
+      </c>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
+      <c r="K63" s="2"/>
+      <c r="L63" s="2"/>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2"/>
+      <c r="O63" s="2"/>
+      <c r="P63" s="2"/>
+      <c r="Q63" s="2"/>
+      <c r="R63" s="2"/>
+      <c r="S63" s="2"/>
+      <c r="T63" s="2"/>
+      <c r="U63" s="2"/>
+      <c r="V63" s="2"/>
+      <c r="W63" s="2"/>
+      <c r="X63" s="2"/>
+      <c r="Y63" s="2"/>
+      <c r="Z63" s="2"/>
+      <c r="AA63" s="2"/>
+      <c r="AB63" s="2"/>
+    </row>
+    <row r="64" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B64" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C64">
+        <v>4</v>
+      </c>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
+      <c r="K64" s="2"/>
+      <c r="L64" s="2"/>
+      <c r="M64" s="2"/>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
+      <c r="P64" s="2"/>
+      <c r="Q64" s="2"/>
+      <c r="R64" s="2"/>
+      <c r="S64" s="2"/>
+      <c r="T64" s="2"/>
+      <c r="U64" s="2"/>
+      <c r="V64" s="2"/>
+      <c r="W64" s="2"/>
+      <c r="X64" s="2"/>
+      <c r="Y64" s="2"/>
+      <c r="Z64" s="2"/>
+      <c r="AA64" s="2"/>
+      <c r="AB64" s="2"/>
+    </row>
+    <row r="65" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B65" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C65">
+        <v>8</v>
+      </c>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2"/>
+      <c r="K65" s="2"/>
+      <c r="L65" s="2"/>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
+      <c r="P65" s="2"/>
+      <c r="Q65" s="2"/>
+      <c r="R65" s="2"/>
+      <c r="S65" s="2"/>
+      <c r="T65" s="2"/>
+      <c r="U65" s="2"/>
+      <c r="V65" s="2"/>
+      <c r="W65" s="2"/>
+      <c r="X65" s="2"/>
+      <c r="Y65" s="2"/>
+      <c r="Z65" s="2"/>
+      <c r="AA65" s="2"/>
+      <c r="AB65" s="2"/>
+    </row>
+    <row r="66" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B66" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C66">
+        <v>4</v>
+      </c>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2"/>
+      <c r="K66" s="2"/>
+      <c r="L66" s="2"/>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
+      <c r="O66" s="2"/>
+      <c r="P66" s="2"/>
+      <c r="Q66" s="2"/>
+      <c r="R66" s="2"/>
+      <c r="S66" s="2"/>
+      <c r="T66" s="2"/>
+      <c r="U66" s="2"/>
+      <c r="V66" s="2"/>
+      <c r="W66" s="2"/>
+      <c r="X66" s="2"/>
+      <c r="Y66" s="2"/>
+      <c r="Z66" s="2"/>
+      <c r="AA66" s="2"/>
+      <c r="AB66" s="2"/>
+    </row>
+    <row r="67" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B67" s="2"/>
+      <c r="C67" t="s">
+        <v>111</v>
+      </c>
+      <c r="D67">
+        <f>SUM(C60:C66)</f>
+        <v>65863</v>
+      </c>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2"/>
+      <c r="K67" s="2"/>
+      <c r="L67" s="2"/>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2"/>
+      <c r="P67" s="2"/>
+      <c r="Q67" s="2"/>
+      <c r="R67" s="2"/>
+      <c r="S67" s="2"/>
+      <c r="T67" s="2"/>
+      <c r="U67" s="2"/>
+      <c r="V67" s="2"/>
+      <c r="W67" s="2"/>
+      <c r="X67" s="2"/>
+      <c r="Y67" s="2"/>
+      <c r="Z67" s="2"/>
+      <c r="AA67" s="2"/>
+      <c r="AB67" s="2"/>
+    </row>
+    <row r="68" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>146</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2"/>
+      <c r="K68" s="2"/>
+      <c r="L68" s="2"/>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
+      <c r="P68" s="2"/>
+      <c r="Q68" s="2"/>
+      <c r="R68" s="2"/>
+      <c r="S68" s="2"/>
+      <c r="T68" s="2"/>
+      <c r="U68" s="2"/>
+      <c r="V68" s="2"/>
+      <c r="W68" s="2"/>
+      <c r="X68" s="2"/>
+      <c r="Y68" s="2"/>
+      <c r="Z68" s="2"/>
+      <c r="AA68" s="2"/>
+      <c r="AB68" s="2"/>
+    </row>
+    <row r="69" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B69" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C69">
+        <v>4</v>
+      </c>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2"/>
+      <c r="K69" s="2"/>
+      <c r="L69" s="2"/>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2"/>
+      <c r="O69" s="2"/>
+      <c r="P69" s="2"/>
+      <c r="Q69" s="2"/>
+      <c r="R69" s="2"/>
+      <c r="S69" s="2"/>
+      <c r="T69" s="2"/>
+      <c r="U69" s="2"/>
+      <c r="V69" s="2"/>
+      <c r="W69" s="2"/>
+      <c r="X69" s="2"/>
+      <c r="Y69" s="2"/>
+      <c r="Z69" s="2"/>
+      <c r="AA69" s="2"/>
+      <c r="AB69" s="2"/>
+    </row>
+    <row r="70" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B70" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C70">
+        <v>100</v>
+      </c>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="2"/>
+      <c r="J70" s="2"/>
+      <c r="K70" s="2"/>
+      <c r="L70" s="2"/>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
+      <c r="O70" s="2"/>
+      <c r="P70" s="2"/>
+      <c r="Q70" s="2"/>
+      <c r="R70" s="2"/>
+      <c r="S70" s="2"/>
+      <c r="T70" s="2"/>
+      <c r="U70" s="2"/>
+      <c r="V70" s="2"/>
+      <c r="W70" s="2"/>
+      <c r="X70" s="2"/>
+      <c r="Y70" s="2"/>
+      <c r="Z70" s="2"/>
+      <c r="AA70" s="2"/>
+      <c r="AB70" s="2"/>
+    </row>
+    <row r="71" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B71" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C71">
+        <v>300</v>
+      </c>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2"/>
+      <c r="J71" s="2"/>
+      <c r="K71" s="2"/>
+      <c r="L71" s="2"/>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
+      <c r="O71" s="2"/>
+      <c r="P71" s="2"/>
+      <c r="Q71" s="2"/>
+      <c r="R71" s="2"/>
+      <c r="S71" s="2"/>
+      <c r="T71" s="2"/>
+      <c r="U71" s="2"/>
+      <c r="V71" s="2"/>
+      <c r="W71" s="2"/>
+      <c r="X71" s="2"/>
+      <c r="Y71" s="2"/>
+      <c r="Z71" s="2"/>
+      <c r="AA71" s="2"/>
+      <c r="AB71" s="2"/>
+    </row>
+    <row r="72" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B72" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C72">
+        <v>4</v>
+      </c>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="2"/>
+      <c r="J72" s="2"/>
+      <c r="K72" s="2"/>
+      <c r="L72" s="2"/>
+      <c r="M72" s="2"/>
+      <c r="N72" s="2"/>
+      <c r="O72" s="2"/>
+      <c r="P72" s="2"/>
+      <c r="Q72" s="2"/>
+      <c r="R72" s="2"/>
+      <c r="S72" s="2"/>
+      <c r="T72" s="2"/>
+      <c r="U72" s="2"/>
+      <c r="V72" s="2"/>
+      <c r="W72" s="2"/>
+      <c r="X72" s="2"/>
+      <c r="Y72" s="2"/>
+      <c r="Z72" s="2"/>
+      <c r="AA72" s="2"/>
+      <c r="AB72" s="2"/>
+    </row>
+    <row r="73" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B73" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C73">
+        <v>4</v>
+      </c>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2"/>
+      <c r="K73" s="2"/>
+      <c r="L73" s="2"/>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
+      <c r="O73" s="2"/>
+      <c r="P73" s="2"/>
+      <c r="Q73" s="2"/>
+      <c r="R73" s="2"/>
+      <c r="S73" s="2"/>
+      <c r="T73" s="2"/>
+      <c r="U73" s="2"/>
+      <c r="V73" s="2"/>
+      <c r="W73" s="2"/>
+      <c r="X73" s="2"/>
+      <c r="Y73" s="2"/>
+      <c r="Z73" s="2"/>
+      <c r="AA73" s="2"/>
+      <c r="AB73" s="2"/>
+    </row>
+    <row r="74" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B74" s="2"/>
+      <c r="C74" t="s">
+        <v>111</v>
+      </c>
+      <c r="D74">
+        <f>SUM(C69:C73)</f>
+        <v>412</v>
+      </c>
+      <c r="F74" s="2"/>
       <c r="G74" s="2"/>
       <c r="H74" s="2"/>
       <c r="I74" s="2"/>
@@ -3127,26 +4547,13 @@
       <c r="Z74" s="2"/>
       <c r="AA74" s="2"/>
       <c r="AB74" s="2"/>
-      <c r="AC74" s="2"/>
-      <c r="AD74" s="2"/>
-      <c r="AE74" s="2"/>
-      <c r="AF74" s="2"/>
-      <c r="AG74" s="2"/>
-      <c r="AH74" s="2"/>
-      <c r="AI74" s="2"/>
-      <c r="AJ74" s="2"/>
-      <c r="AK74" s="2"/>
-      <c r="AL74" s="2"/>
-      <c r="AM74" s="2"/>
-      <c r="AN74" s="2"/>
-      <c r="AO74" s="2"/>
-      <c r="AP74" s="2"/>
-      <c r="AQ74" s="2"/>
-      <c r="AR74" s="2"/>
-      <c r="AS74" s="2"/>
-      <c r="AT74" s="2"/>
-    </row>
-    <row r="75" spans="7:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>151</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="F75" s="2"/>
       <c r="G75" s="2"/>
       <c r="H75" s="2"/>
       <c r="I75" s="2"/>
@@ -3169,26 +4576,15 @@
       <c r="Z75" s="2"/>
       <c r="AA75" s="2"/>
       <c r="AB75" s="2"/>
-      <c r="AC75" s="2"/>
-      <c r="AD75" s="2"/>
-      <c r="AE75" s="2"/>
-      <c r="AF75" s="2"/>
-      <c r="AG75" s="2"/>
-      <c r="AH75" s="2"/>
-      <c r="AI75" s="2"/>
-      <c r="AJ75" s="2"/>
-      <c r="AK75" s="2"/>
-      <c r="AL75" s="2"/>
-      <c r="AM75" s="2"/>
-      <c r="AN75" s="2"/>
-      <c r="AO75" s="2"/>
-      <c r="AP75" s="2"/>
-      <c r="AQ75" s="2"/>
-      <c r="AR75" s="2"/>
-      <c r="AS75" s="2"/>
-      <c r="AT75" s="2"/>
-    </row>
-    <row r="76" spans="7:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B76" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C76">
+        <v>4</v>
+      </c>
+      <c r="F76" s="2"/>
       <c r="G76" s="2"/>
       <c r="H76" s="2"/>
       <c r="I76" s="2"/>
@@ -3211,26 +4607,15 @@
       <c r="Z76" s="2"/>
       <c r="AA76" s="2"/>
       <c r="AB76" s="2"/>
-      <c r="AC76" s="2"/>
-      <c r="AD76" s="2"/>
-      <c r="AE76" s="2"/>
-      <c r="AF76" s="2"/>
-      <c r="AG76" s="2"/>
-      <c r="AH76" s="2"/>
-      <c r="AI76" s="2"/>
-      <c r="AJ76" s="2"/>
-      <c r="AK76" s="2"/>
-      <c r="AL76" s="2"/>
-      <c r="AM76" s="2"/>
-      <c r="AN76" s="2"/>
-      <c r="AO76" s="2"/>
-      <c r="AP76" s="2"/>
-      <c r="AQ76" s="2"/>
-      <c r="AR76" s="2"/>
-      <c r="AS76" s="2"/>
-      <c r="AT76" s="2"/>
-    </row>
-    <row r="77" spans="7:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B77" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C77">
+        <v>45</v>
+      </c>
+      <c r="F77" s="2"/>
       <c r="G77" s="2"/>
       <c r="H77" s="2"/>
       <c r="I77" s="2"/>
@@ -3253,26 +4638,16 @@
       <c r="Z77" s="2"/>
       <c r="AA77" s="2"/>
       <c r="AB77" s="2"/>
-      <c r="AC77" s="2"/>
-      <c r="AD77" s="2"/>
-      <c r="AE77" s="2"/>
-      <c r="AF77" s="2"/>
-      <c r="AG77" s="2"/>
-      <c r="AH77" s="2"/>
-      <c r="AI77" s="2"/>
-      <c r="AJ77" s="2"/>
-      <c r="AK77" s="2"/>
-      <c r="AL77" s="2"/>
-      <c r="AM77" s="2"/>
-      <c r="AN77" s="2"/>
-      <c r="AO77" s="2"/>
-      <c r="AP77" s="2"/>
-      <c r="AQ77" s="2"/>
-      <c r="AR77" s="2"/>
-      <c r="AS77" s="2"/>
-      <c r="AT77" s="2"/>
-    </row>
-    <row r="78" spans="7:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="C78" t="s">
+        <v>111</v>
+      </c>
+      <c r="D78">
+        <f>SUM(C76:C77)</f>
+        <v>49</v>
+      </c>
+      <c r="F78" s="2"/>
       <c r="G78" s="2"/>
       <c r="H78" s="2"/>
       <c r="I78" s="2"/>
@@ -3295,26 +4670,12 @@
       <c r="Z78" s="2"/>
       <c r="AA78" s="2"/>
       <c r="AB78" s="2"/>
-      <c r="AC78" s="2"/>
-      <c r="AD78" s="2"/>
-      <c r="AE78" s="2"/>
-      <c r="AF78" s="2"/>
-      <c r="AG78" s="2"/>
-      <c r="AH78" s="2"/>
-      <c r="AI78" s="2"/>
-      <c r="AJ78" s="2"/>
-      <c r="AK78" s="2"/>
-      <c r="AL78" s="2"/>
-      <c r="AM78" s="2"/>
-      <c r="AN78" s="2"/>
-      <c r="AO78" s="2"/>
-      <c r="AP78" s="2"/>
-      <c r="AQ78" s="2"/>
-      <c r="AR78" s="2"/>
-      <c r="AS78" s="2"/>
-      <c r="AT78" s="2"/>
-    </row>
-    <row r="79" spans="7:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>153</v>
+      </c>
+      <c r="F79" s="2"/>
       <c r="G79" s="2"/>
       <c r="H79" s="2"/>
       <c r="I79" s="2"/>
@@ -3337,26 +4698,15 @@
       <c r="Z79" s="2"/>
       <c r="AA79" s="2"/>
       <c r="AB79" s="2"/>
-      <c r="AC79" s="2"/>
-      <c r="AD79" s="2"/>
-      <c r="AE79" s="2"/>
-      <c r="AF79" s="2"/>
-      <c r="AG79" s="2"/>
-      <c r="AH79" s="2"/>
-      <c r="AI79" s="2"/>
-      <c r="AJ79" s="2"/>
-      <c r="AK79" s="2"/>
-      <c r="AL79" s="2"/>
-      <c r="AM79" s="2"/>
-      <c r="AN79" s="2"/>
-      <c r="AO79" s="2"/>
-      <c r="AP79" s="2"/>
-      <c r="AQ79" s="2"/>
-      <c r="AR79" s="2"/>
-      <c r="AS79" s="2"/>
-      <c r="AT79" s="2"/>
-    </row>
-    <row r="80" spans="7:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B80" t="s">
+        <v>142</v>
+      </c>
+      <c r="C80">
+        <v>4</v>
+      </c>
+      <c r="F80" s="2"/>
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
       <c r="I80" s="2"/>
@@ -3379,26 +4729,15 @@
       <c r="Z80" s="2"/>
       <c r="AA80" s="2"/>
       <c r="AB80" s="2"/>
-      <c r="AC80" s="2"/>
-      <c r="AD80" s="2"/>
-      <c r="AE80" s="2"/>
-      <c r="AF80" s="2"/>
-      <c r="AG80" s="2"/>
-      <c r="AH80" s="2"/>
-      <c r="AI80" s="2"/>
-      <c r="AJ80" s="2"/>
-      <c r="AK80" s="2"/>
-      <c r="AL80" s="2"/>
-      <c r="AM80" s="2"/>
-      <c r="AN80" s="2"/>
-      <c r="AO80" s="2"/>
-      <c r="AP80" s="2"/>
-      <c r="AQ80" s="2"/>
-      <c r="AR80" s="2"/>
-      <c r="AS80" s="2"/>
-      <c r="AT80" s="2"/>
-    </row>
-    <row r="81" spans="7:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B81" t="s">
+        <v>120</v>
+      </c>
+      <c r="C81">
+        <v>200</v>
+      </c>
+      <c r="F81" s="2"/>
       <c r="G81" s="2"/>
       <c r="H81" s="2"/>
       <c r="I81" s="2"/>
@@ -3421,26 +4760,13 @@
       <c r="Z81" s="2"/>
       <c r="AA81" s="2"/>
       <c r="AB81" s="2"/>
-      <c r="AC81" s="2"/>
-      <c r="AD81" s="2"/>
-      <c r="AE81" s="2"/>
-      <c r="AF81" s="2"/>
-      <c r="AG81" s="2"/>
-      <c r="AH81" s="2"/>
-      <c r="AI81" s="2"/>
-      <c r="AJ81" s="2"/>
-      <c r="AK81" s="2"/>
-      <c r="AL81" s="2"/>
-      <c r="AM81" s="2"/>
-      <c r="AN81" s="2"/>
-      <c r="AO81" s="2"/>
-      <c r="AP81" s="2"/>
-      <c r="AQ81" s="2"/>
-      <c r="AR81" s="2"/>
-      <c r="AS81" s="2"/>
-      <c r="AT81" s="2"/>
-    </row>
-    <row r="82" spans="7:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="D82">
+        <f>SUM(C80:C81)</f>
+        <v>204</v>
+      </c>
+      <c r="F82" s="2"/>
       <c r="G82" s="2"/>
       <c r="H82" s="2"/>
       <c r="I82" s="2"/>
@@ -3463,26 +4789,12 @@
       <c r="Z82" s="2"/>
       <c r="AA82" s="2"/>
       <c r="AB82" s="2"/>
-      <c r="AC82" s="2"/>
-      <c r="AD82" s="2"/>
-      <c r="AE82" s="2"/>
-      <c r="AF82" s="2"/>
-      <c r="AG82" s="2"/>
-      <c r="AH82" s="2"/>
-      <c r="AI82" s="2"/>
-      <c r="AJ82" s="2"/>
-      <c r="AK82" s="2"/>
-      <c r="AL82" s="2"/>
-      <c r="AM82" s="2"/>
-      <c r="AN82" s="2"/>
-      <c r="AO82" s="2"/>
-      <c r="AP82" s="2"/>
-      <c r="AQ82" s="2"/>
-      <c r="AR82" s="2"/>
-      <c r="AS82" s="2"/>
-      <c r="AT82" s="2"/>
-    </row>
-    <row r="83" spans="7:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>79</v>
+      </c>
+      <c r="F83" s="2"/>
       <c r="G83" s="2"/>
       <c r="H83" s="2"/>
       <c r="I83" s="2"/>
@@ -3505,26 +4817,15 @@
       <c r="Z83" s="2"/>
       <c r="AA83" s="2"/>
       <c r="AB83" s="2"/>
-      <c r="AC83" s="2"/>
-      <c r="AD83" s="2"/>
-      <c r="AE83" s="2"/>
-      <c r="AF83" s="2"/>
-      <c r="AG83" s="2"/>
-      <c r="AH83" s="2"/>
-      <c r="AI83" s="2"/>
-      <c r="AJ83" s="2"/>
-      <c r="AK83" s="2"/>
-      <c r="AL83" s="2"/>
-      <c r="AM83" s="2"/>
-      <c r="AN83" s="2"/>
-      <c r="AO83" s="2"/>
-      <c r="AP83" s="2"/>
-      <c r="AQ83" s="2"/>
-      <c r="AR83" s="2"/>
-      <c r="AS83" s="2"/>
-      <c r="AT83" s="2"/>
-    </row>
-    <row r="84" spans="7:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B84" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C84">
+        <v>8</v>
+      </c>
+      <c r="F84" s="2"/>
       <c r="G84" s="2"/>
       <c r="H84" s="2"/>
       <c r="I84" s="2"/>
@@ -3547,26 +4848,15 @@
       <c r="Z84" s="2"/>
       <c r="AA84" s="2"/>
       <c r="AB84" s="2"/>
-      <c r="AC84" s="2"/>
-      <c r="AD84" s="2"/>
-      <c r="AE84" s="2"/>
-      <c r="AF84" s="2"/>
-      <c r="AG84" s="2"/>
-      <c r="AH84" s="2"/>
-      <c r="AI84" s="2"/>
-      <c r="AJ84" s="2"/>
-      <c r="AK84" s="2"/>
-      <c r="AL84" s="2"/>
-      <c r="AM84" s="2"/>
-      <c r="AN84" s="2"/>
-      <c r="AO84" s="2"/>
-      <c r="AP84" s="2"/>
-      <c r="AQ84" s="2"/>
-      <c r="AR84" s="2"/>
-      <c r="AS84" s="2"/>
-      <c r="AT84" s="2"/>
-    </row>
-    <row r="85" spans="7:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B85" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C85">
+        <v>8</v>
+      </c>
+      <c r="F85" s="2"/>
       <c r="G85" s="2"/>
       <c r="H85" s="2"/>
       <c r="I85" s="2"/>
@@ -3589,26 +4879,15 @@
       <c r="Z85" s="2"/>
       <c r="AA85" s="2"/>
       <c r="AB85" s="2"/>
-      <c r="AC85" s="2"/>
-      <c r="AD85" s="2"/>
-      <c r="AE85" s="2"/>
-      <c r="AF85" s="2"/>
-      <c r="AG85" s="2"/>
-      <c r="AH85" s="2"/>
-      <c r="AI85" s="2"/>
-      <c r="AJ85" s="2"/>
-      <c r="AK85" s="2"/>
-      <c r="AL85" s="2"/>
-      <c r="AM85" s="2"/>
-      <c r="AN85" s="2"/>
-      <c r="AO85" s="2"/>
-      <c r="AP85" s="2"/>
-      <c r="AQ85" s="2"/>
-      <c r="AR85" s="2"/>
-      <c r="AS85" s="2"/>
-      <c r="AT85" s="2"/>
-    </row>
-    <row r="86" spans="7:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B86" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C86">
+        <v>255</v>
+      </c>
+      <c r="F86" s="2"/>
       <c r="G86" s="2"/>
       <c r="H86" s="2"/>
       <c r="I86" s="2"/>
@@ -3631,26 +4910,15 @@
       <c r="Z86" s="2"/>
       <c r="AA86" s="2"/>
       <c r="AB86" s="2"/>
-      <c r="AC86" s="2"/>
-      <c r="AD86" s="2"/>
-      <c r="AE86" s="2"/>
-      <c r="AF86" s="2"/>
-      <c r="AG86" s="2"/>
-      <c r="AH86" s="2"/>
-      <c r="AI86" s="2"/>
-      <c r="AJ86" s="2"/>
-      <c r="AK86" s="2"/>
-      <c r="AL86" s="2"/>
-      <c r="AM86" s="2"/>
-      <c r="AN86" s="2"/>
-      <c r="AO86" s="2"/>
-      <c r="AP86" s="2"/>
-      <c r="AQ86" s="2"/>
-      <c r="AR86" s="2"/>
-      <c r="AS86" s="2"/>
-      <c r="AT86" s="2"/>
-    </row>
-    <row r="87" spans="7:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B87" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C87">
+        <v>100</v>
+      </c>
+      <c r="F87" s="2"/>
       <c r="G87" s="2"/>
       <c r="H87" s="2"/>
       <c r="I87" s="2"/>
@@ -3673,26 +4941,15 @@
       <c r="Z87" s="2"/>
       <c r="AA87" s="2"/>
       <c r="AB87" s="2"/>
-      <c r="AC87" s="2"/>
-      <c r="AD87" s="2"/>
-      <c r="AE87" s="2"/>
-      <c r="AF87" s="2"/>
-      <c r="AG87" s="2"/>
-      <c r="AH87" s="2"/>
-      <c r="AI87" s="2"/>
-      <c r="AJ87" s="2"/>
-      <c r="AK87" s="2"/>
-      <c r="AL87" s="2"/>
-      <c r="AM87" s="2"/>
-      <c r="AN87" s="2"/>
-      <c r="AO87" s="2"/>
-      <c r="AP87" s="2"/>
-      <c r="AQ87" s="2"/>
-      <c r="AR87" s="2"/>
-      <c r="AS87" s="2"/>
-      <c r="AT87" s="2"/>
-    </row>
-    <row r="88" spans="7:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B88" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C88">
+        <v>200</v>
+      </c>
+      <c r="F88" s="2"/>
       <c r="G88" s="2"/>
       <c r="H88" s="2"/>
       <c r="I88" s="2"/>
@@ -3715,26 +4972,15 @@
       <c r="Z88" s="2"/>
       <c r="AA88" s="2"/>
       <c r="AB88" s="2"/>
-      <c r="AC88" s="2"/>
-      <c r="AD88" s="2"/>
-      <c r="AE88" s="2"/>
-      <c r="AF88" s="2"/>
-      <c r="AG88" s="2"/>
-      <c r="AH88" s="2"/>
-      <c r="AI88" s="2"/>
-      <c r="AJ88" s="2"/>
-      <c r="AK88" s="2"/>
-      <c r="AL88" s="2"/>
-      <c r="AM88" s="2"/>
-      <c r="AN88" s="2"/>
-      <c r="AO88" s="2"/>
-      <c r="AP88" s="2"/>
-      <c r="AQ88" s="2"/>
-      <c r="AR88" s="2"/>
-      <c r="AS88" s="2"/>
-      <c r="AT88" s="2"/>
-    </row>
-    <row r="89" spans="7:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B89" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C89">
+        <v>100</v>
+      </c>
+      <c r="F89" s="2"/>
       <c r="G89" s="2"/>
       <c r="H89" s="2"/>
       <c r="I89" s="2"/>
@@ -3757,26 +5003,15 @@
       <c r="Z89" s="2"/>
       <c r="AA89" s="2"/>
       <c r="AB89" s="2"/>
-      <c r="AC89" s="2"/>
-      <c r="AD89" s="2"/>
-      <c r="AE89" s="2"/>
-      <c r="AF89" s="2"/>
-      <c r="AG89" s="2"/>
-      <c r="AH89" s="2"/>
-      <c r="AI89" s="2"/>
-      <c r="AJ89" s="2"/>
-      <c r="AK89" s="2"/>
-      <c r="AL89" s="2"/>
-      <c r="AM89" s="2"/>
-      <c r="AN89" s="2"/>
-      <c r="AO89" s="2"/>
-      <c r="AP89" s="2"/>
-      <c r="AQ89" s="2"/>
-      <c r="AR89" s="2"/>
-      <c r="AS89" s="2"/>
-      <c r="AT89" s="2"/>
-    </row>
-    <row r="90" spans="7:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B90" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C90">
+        <v>8</v>
+      </c>
+      <c r="F90" s="2"/>
       <c r="G90" s="2"/>
       <c r="H90" s="2"/>
       <c r="I90" s="2"/>
@@ -3799,26 +5034,15 @@
       <c r="Z90" s="2"/>
       <c r="AA90" s="2"/>
       <c r="AB90" s="2"/>
-      <c r="AC90" s="2"/>
-      <c r="AD90" s="2"/>
-      <c r="AE90" s="2"/>
-      <c r="AF90" s="2"/>
-      <c r="AG90" s="2"/>
-      <c r="AH90" s="2"/>
-      <c r="AI90" s="2"/>
-      <c r="AJ90" s="2"/>
-      <c r="AK90" s="2"/>
-      <c r="AL90" s="2"/>
-      <c r="AM90" s="2"/>
-      <c r="AN90" s="2"/>
-      <c r="AO90" s="2"/>
-      <c r="AP90" s="2"/>
-      <c r="AQ90" s="2"/>
-      <c r="AR90" s="2"/>
-      <c r="AS90" s="2"/>
-      <c r="AT90" s="2"/>
-    </row>
-    <row r="91" spans="7:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B91" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C91">
+        <v>8</v>
+      </c>
+      <c r="F91" s="2"/>
       <c r="G91" s="2"/>
       <c r="H91" s="2"/>
       <c r="I91" s="2"/>
@@ -3841,26 +5065,15 @@
       <c r="Z91" s="2"/>
       <c r="AA91" s="2"/>
       <c r="AB91" s="2"/>
-      <c r="AC91" s="2"/>
-      <c r="AD91" s="2"/>
-      <c r="AE91" s="2"/>
-      <c r="AF91" s="2"/>
-      <c r="AG91" s="2"/>
-      <c r="AH91" s="2"/>
-      <c r="AI91" s="2"/>
-      <c r="AJ91" s="2"/>
-      <c r="AK91" s="2"/>
-      <c r="AL91" s="2"/>
-      <c r="AM91" s="2"/>
-      <c r="AN91" s="2"/>
-      <c r="AO91" s="2"/>
-      <c r="AP91" s="2"/>
-      <c r="AQ91" s="2"/>
-      <c r="AR91" s="2"/>
-      <c r="AS91" s="2"/>
-      <c r="AT91" s="2"/>
-    </row>
-    <row r="92" spans="7:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B92" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C92">
+        <v>65535</v>
+      </c>
+      <c r="F92" s="2"/>
       <c r="G92" s="2"/>
       <c r="H92" s="2"/>
       <c r="I92" s="2"/>
@@ -3883,26 +5096,15 @@
       <c r="Z92" s="2"/>
       <c r="AA92" s="2"/>
       <c r="AB92" s="2"/>
-      <c r="AC92" s="2"/>
-      <c r="AD92" s="2"/>
-      <c r="AE92" s="2"/>
-      <c r="AF92" s="2"/>
-      <c r="AG92" s="2"/>
-      <c r="AH92" s="2"/>
-      <c r="AI92" s="2"/>
-      <c r="AJ92" s="2"/>
-      <c r="AK92" s="2"/>
-      <c r="AL92" s="2"/>
-      <c r="AM92" s="2"/>
-      <c r="AN92" s="2"/>
-      <c r="AO92" s="2"/>
-      <c r="AP92" s="2"/>
-      <c r="AQ92" s="2"/>
-      <c r="AR92" s="2"/>
-      <c r="AS92" s="2"/>
-      <c r="AT92" s="2"/>
-    </row>
-    <row r="93" spans="7:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B93" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C93">
+        <v>4</v>
+      </c>
+      <c r="F93" s="2"/>
       <c r="G93" s="2"/>
       <c r="H93" s="2"/>
       <c r="I93" s="2"/>
@@ -3925,26 +5127,15 @@
       <c r="Z93" s="2"/>
       <c r="AA93" s="2"/>
       <c r="AB93" s="2"/>
-      <c r="AC93" s="2"/>
-      <c r="AD93" s="2"/>
-      <c r="AE93" s="2"/>
-      <c r="AF93" s="2"/>
-      <c r="AG93" s="2"/>
-      <c r="AH93" s="2"/>
-      <c r="AI93" s="2"/>
-      <c r="AJ93" s="2"/>
-      <c r="AK93" s="2"/>
-      <c r="AL93" s="2"/>
-      <c r="AM93" s="2"/>
-      <c r="AN93" s="2"/>
-      <c r="AO93" s="2"/>
-      <c r="AP93" s="2"/>
-      <c r="AQ93" s="2"/>
-      <c r="AR93" s="2"/>
-      <c r="AS93" s="2"/>
-      <c r="AT93" s="2"/>
-    </row>
-    <row r="94" spans="7:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B94" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C94">
+        <v>20</v>
+      </c>
+      <c r="F94" s="2"/>
       <c r="G94" s="2"/>
       <c r="H94" s="2"/>
       <c r="I94" s="2"/>
@@ -3967,26 +5158,15 @@
       <c r="Z94" s="2"/>
       <c r="AA94" s="2"/>
       <c r="AB94" s="2"/>
-      <c r="AC94" s="2"/>
-      <c r="AD94" s="2"/>
-      <c r="AE94" s="2"/>
-      <c r="AF94" s="2"/>
-      <c r="AG94" s="2"/>
-      <c r="AH94" s="2"/>
-      <c r="AI94" s="2"/>
-      <c r="AJ94" s="2"/>
-      <c r="AK94" s="2"/>
-      <c r="AL94" s="2"/>
-      <c r="AM94" s="2"/>
-      <c r="AN94" s="2"/>
-      <c r="AO94" s="2"/>
-      <c r="AP94" s="2"/>
-      <c r="AQ94" s="2"/>
-      <c r="AR94" s="2"/>
-      <c r="AS94" s="2"/>
-      <c r="AT94" s="2"/>
-    </row>
-    <row r="95" spans="7:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B95" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C95">
+        <v>255</v>
+      </c>
+      <c r="F95" s="2"/>
       <c r="G95" s="2"/>
       <c r="H95" s="2"/>
       <c r="I95" s="2"/>
@@ -4009,26 +5189,15 @@
       <c r="Z95" s="2"/>
       <c r="AA95" s="2"/>
       <c r="AB95" s="2"/>
-      <c r="AC95" s="2"/>
-      <c r="AD95" s="2"/>
-      <c r="AE95" s="2"/>
-      <c r="AF95" s="2"/>
-      <c r="AG95" s="2"/>
-      <c r="AH95" s="2"/>
-      <c r="AI95" s="2"/>
-      <c r="AJ95" s="2"/>
-      <c r="AK95" s="2"/>
-      <c r="AL95" s="2"/>
-      <c r="AM95" s="2"/>
-      <c r="AN95" s="2"/>
-      <c r="AO95" s="2"/>
-      <c r="AP95" s="2"/>
-      <c r="AQ95" s="2"/>
-      <c r="AR95" s="2"/>
-      <c r="AS95" s="2"/>
-      <c r="AT95" s="2"/>
-    </row>
-    <row r="96" spans="7:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B96" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C96">
+        <v>20</v>
+      </c>
+      <c r="F96" s="2"/>
       <c r="G96" s="2"/>
       <c r="H96" s="2"/>
       <c r="I96" s="2"/>
@@ -4051,24 +5220,1164 @@
       <c r="Z96" s="2"/>
       <c r="AA96" s="2"/>
       <c r="AB96" s="2"/>
-      <c r="AC96" s="2"/>
-      <c r="AD96" s="2"/>
-      <c r="AE96" s="2"/>
-      <c r="AF96" s="2"/>
-      <c r="AG96" s="2"/>
-      <c r="AH96" s="2"/>
-      <c r="AI96" s="2"/>
-      <c r="AJ96" s="2"/>
-      <c r="AK96" s="2"/>
-      <c r="AL96" s="2"/>
-      <c r="AM96" s="2"/>
-      <c r="AN96" s="2"/>
-      <c r="AO96" s="2"/>
-      <c r="AP96" s="2"/>
-      <c r="AQ96" s="2"/>
-      <c r="AR96" s="2"/>
-      <c r="AS96" s="2"/>
-      <c r="AT96" s="2"/>
+    </row>
+    <row r="97" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B97" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C97">
+        <v>8</v>
+      </c>
+      <c r="F97" s="2"/>
+      <c r="G97" s="2"/>
+      <c r="H97" s="2"/>
+      <c r="I97" s="2"/>
+      <c r="J97" s="2"/>
+      <c r="K97" s="2"/>
+      <c r="L97" s="2"/>
+      <c r="M97" s="2"/>
+      <c r="N97" s="2"/>
+      <c r="O97" s="2"/>
+      <c r="P97" s="2"/>
+      <c r="Q97" s="2"/>
+      <c r="R97" s="2"/>
+      <c r="S97" s="2"/>
+      <c r="T97" s="2"/>
+      <c r="U97" s="2"/>
+      <c r="V97" s="2"/>
+      <c r="W97" s="2"/>
+      <c r="X97" s="2"/>
+      <c r="Y97" s="2"/>
+      <c r="Z97" s="2"/>
+      <c r="AA97" s="2"/>
+      <c r="AB97" s="2"/>
+    </row>
+    <row r="98" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B98" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C98">
+        <v>8</v>
+      </c>
+      <c r="F98" s="2"/>
+      <c r="G98" s="2"/>
+      <c r="H98" s="2"/>
+      <c r="I98" s="2"/>
+      <c r="J98" s="2"/>
+      <c r="K98" s="2"/>
+      <c r="L98" s="2"/>
+      <c r="M98" s="2"/>
+      <c r="N98" s="2"/>
+      <c r="O98" s="2"/>
+      <c r="P98" s="2"/>
+      <c r="Q98" s="2"/>
+      <c r="R98" s="2"/>
+      <c r="S98" s="2"/>
+      <c r="T98" s="2"/>
+      <c r="U98" s="2"/>
+      <c r="V98" s="2"/>
+      <c r="W98" s="2"/>
+      <c r="X98" s="2"/>
+      <c r="Y98" s="2"/>
+      <c r="Z98" s="2"/>
+      <c r="AA98" s="2"/>
+      <c r="AB98" s="2"/>
+    </row>
+    <row r="99" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="C99" t="s">
+        <v>111</v>
+      </c>
+      <c r="D99">
+        <f>SUM(C84:C98)</f>
+        <v>66537</v>
+      </c>
+      <c r="F99" s="2"/>
+      <c r="G99" s="2"/>
+      <c r="H99" s="2"/>
+      <c r="I99" s="2"/>
+      <c r="J99" s="2"/>
+      <c r="K99" s="2"/>
+      <c r="L99" s="2"/>
+      <c r="M99" s="2"/>
+      <c r="N99" s="2"/>
+      <c r="O99" s="2"/>
+      <c r="P99" s="2"/>
+      <c r="Q99" s="2"/>
+      <c r="R99" s="2"/>
+      <c r="S99" s="2"/>
+      <c r="T99" s="2"/>
+      <c r="U99" s="2"/>
+      <c r="V99" s="2"/>
+      <c r="W99" s="2"/>
+      <c r="X99" s="2"/>
+      <c r="Y99" s="2"/>
+      <c r="Z99" s="2"/>
+      <c r="AA99" s="2"/>
+      <c r="AB99" s="2"/>
+    </row>
+    <row r="101" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="102" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B102" t="s">
+        <v>119</v>
+      </c>
+      <c r="C102">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B103" t="s">
+        <v>120</v>
+      </c>
+      <c r="C103">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="104" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B104" t="s">
+        <v>121</v>
+      </c>
+      <c r="C104">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="105" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B105" t="s">
+        <v>122</v>
+      </c>
+      <c r="C105">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="106" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="C106" t="s">
+        <v>111</v>
+      </c>
+      <c r="D106">
+        <f>SUM(C102:C105)</f>
+        <v>716</v>
+      </c>
+    </row>
+    <row r="107" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>123</v>
+      </c>
+      <c r="B107" t="s">
+        <v>124</v>
+      </c>
+      <c r="C107">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B108" t="s">
+        <v>125</v>
+      </c>
+      <c r="C108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B109" t="s">
+        <v>126</v>
+      </c>
+      <c r="C109">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B110" t="s">
+        <v>127</v>
+      </c>
+      <c r="C110">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="111" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B111" t="s">
+        <v>119</v>
+      </c>
+      <c r="C111">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="C112" t="s">
+        <v>111</v>
+      </c>
+      <c r="D112">
+        <f>SUM(C107:C111)</f>
+        <v>214</v>
+      </c>
+    </row>
+    <row r="117" spans="7:46" x14ac:dyDescent="0.3">
+      <c r="G117" s="2"/>
+      <c r="H117" s="2"/>
+      <c r="I117" s="2"/>
+      <c r="J117" s="2"/>
+      <c r="K117" s="2"/>
+      <c r="L117" s="2"/>
+      <c r="M117" s="2"/>
+      <c r="N117" s="2"/>
+      <c r="O117" s="2"/>
+      <c r="P117" s="2"/>
+      <c r="Q117" s="2"/>
+      <c r="R117" s="2"/>
+      <c r="S117" s="2"/>
+      <c r="T117" s="2"/>
+      <c r="U117" s="2"/>
+      <c r="V117" s="2"/>
+      <c r="W117" s="2"/>
+      <c r="X117" s="2"/>
+      <c r="Y117" s="2"/>
+      <c r="Z117" s="2"/>
+      <c r="AA117" s="2"/>
+      <c r="AB117" s="2"/>
+      <c r="AC117" s="2"/>
+      <c r="AD117" s="2"/>
+      <c r="AE117" s="2"/>
+      <c r="AF117" s="2"/>
+      <c r="AG117" s="2"/>
+      <c r="AH117" s="2"/>
+      <c r="AI117" s="2"/>
+      <c r="AJ117" s="2"/>
+      <c r="AK117" s="2"/>
+      <c r="AL117" s="2"/>
+      <c r="AM117" s="2"/>
+      <c r="AN117" s="2"/>
+      <c r="AO117" s="2"/>
+      <c r="AP117" s="2"/>
+      <c r="AQ117" s="2"/>
+      <c r="AR117" s="2"/>
+      <c r="AS117" s="2"/>
+      <c r="AT117" s="2"/>
+    </row>
+    <row r="118" spans="7:46" x14ac:dyDescent="0.3">
+      <c r="G118" s="2"/>
+      <c r="H118" s="2"/>
+      <c r="I118" s="2"/>
+      <c r="J118" s="2"/>
+      <c r="K118" s="2"/>
+      <c r="L118" s="2"/>
+      <c r="M118" s="2"/>
+      <c r="N118" s="2"/>
+      <c r="O118" s="2"/>
+      <c r="P118" s="2"/>
+      <c r="Q118" s="2"/>
+      <c r="R118" s="2"/>
+      <c r="S118" s="2"/>
+      <c r="T118" s="2"/>
+      <c r="U118" s="2"/>
+      <c r="V118" s="2"/>
+      <c r="W118" s="2"/>
+      <c r="X118" s="2"/>
+      <c r="Y118" s="2"/>
+      <c r="Z118" s="2"/>
+      <c r="AA118" s="2"/>
+      <c r="AB118" s="2"/>
+      <c r="AC118" s="2"/>
+      <c r="AD118" s="2"/>
+      <c r="AE118" s="2"/>
+      <c r="AF118" s="2"/>
+      <c r="AG118" s="2"/>
+      <c r="AH118" s="2"/>
+      <c r="AI118" s="2"/>
+      <c r="AJ118" s="2"/>
+      <c r="AK118" s="2"/>
+      <c r="AL118" s="2"/>
+      <c r="AM118" s="2"/>
+      <c r="AN118" s="2"/>
+      <c r="AO118" s="2"/>
+      <c r="AP118" s="2"/>
+      <c r="AQ118" s="2"/>
+      <c r="AR118" s="2"/>
+      <c r="AS118" s="2"/>
+      <c r="AT118" s="2"/>
+    </row>
+    <row r="119" spans="7:46" x14ac:dyDescent="0.3">
+      <c r="G119" s="2"/>
+      <c r="H119" s="2"/>
+      <c r="I119" s="2"/>
+      <c r="J119" s="2"/>
+      <c r="K119" s="2"/>
+      <c r="L119" s="2"/>
+      <c r="M119" s="2"/>
+      <c r="N119" s="2"/>
+      <c r="O119" s="2"/>
+      <c r="P119" s="2"/>
+      <c r="Q119" s="2"/>
+      <c r="R119" s="2"/>
+      <c r="S119" s="2"/>
+      <c r="T119" s="2"/>
+      <c r="U119" s="2"/>
+      <c r="V119" s="2"/>
+      <c r="W119" s="2"/>
+      <c r="X119" s="2"/>
+      <c r="Y119" s="2"/>
+      <c r="Z119" s="2"/>
+      <c r="AA119" s="2"/>
+      <c r="AB119" s="2"/>
+      <c r="AC119" s="2"/>
+      <c r="AD119" s="2"/>
+      <c r="AE119" s="2"/>
+      <c r="AF119" s="2"/>
+      <c r="AG119" s="2"/>
+      <c r="AH119" s="2"/>
+      <c r="AI119" s="2"/>
+      <c r="AJ119" s="2"/>
+      <c r="AK119" s="2"/>
+      <c r="AL119" s="2"/>
+      <c r="AM119" s="2"/>
+      <c r="AN119" s="2"/>
+      <c r="AO119" s="2"/>
+      <c r="AP119" s="2"/>
+      <c r="AQ119" s="2"/>
+      <c r="AR119" s="2"/>
+      <c r="AS119" s="2"/>
+      <c r="AT119" s="2"/>
+    </row>
+    <row r="120" spans="7:46" x14ac:dyDescent="0.3">
+      <c r="G120" s="2"/>
+      <c r="H120" s="2"/>
+      <c r="I120" s="2"/>
+      <c r="J120" s="2"/>
+      <c r="K120" s="2"/>
+      <c r="L120" s="2"/>
+      <c r="M120" s="2"/>
+      <c r="N120" s="2"/>
+      <c r="O120" s="2"/>
+      <c r="P120" s="2"/>
+      <c r="Q120" s="2"/>
+      <c r="R120" s="2"/>
+      <c r="S120" s="2"/>
+      <c r="T120" s="2"/>
+      <c r="U120" s="2"/>
+      <c r="V120" s="2"/>
+      <c r="W120" s="2"/>
+      <c r="X120" s="2"/>
+      <c r="Y120" s="2"/>
+      <c r="Z120" s="2"/>
+      <c r="AA120" s="2"/>
+      <c r="AB120" s="2"/>
+      <c r="AC120" s="2"/>
+      <c r="AD120" s="2"/>
+      <c r="AE120" s="2"/>
+      <c r="AF120" s="2"/>
+      <c r="AG120" s="2"/>
+      <c r="AH120" s="2"/>
+      <c r="AI120" s="2"/>
+      <c r="AJ120" s="2"/>
+      <c r="AK120" s="2"/>
+      <c r="AL120" s="2"/>
+      <c r="AM120" s="2"/>
+      <c r="AN120" s="2"/>
+      <c r="AO120" s="2"/>
+      <c r="AP120" s="2"/>
+      <c r="AQ120" s="2"/>
+      <c r="AR120" s="2"/>
+      <c r="AS120" s="2"/>
+      <c r="AT120" s="2"/>
+    </row>
+    <row r="121" spans="7:46" x14ac:dyDescent="0.3">
+      <c r="G121" s="2"/>
+      <c r="H121" s="2"/>
+      <c r="I121" s="2"/>
+      <c r="J121" s="2"/>
+      <c r="K121" s="2"/>
+      <c r="L121" s="2"/>
+      <c r="M121" s="2"/>
+      <c r="N121" s="2"/>
+      <c r="O121" s="2"/>
+      <c r="P121" s="2"/>
+      <c r="Q121" s="2"/>
+      <c r="R121" s="2"/>
+      <c r="S121" s="2"/>
+      <c r="T121" s="2"/>
+      <c r="U121" s="2"/>
+      <c r="V121" s="2"/>
+      <c r="W121" s="2"/>
+      <c r="X121" s="2"/>
+      <c r="Y121" s="2"/>
+      <c r="Z121" s="2"/>
+      <c r="AA121" s="2"/>
+      <c r="AB121" s="2"/>
+      <c r="AC121" s="2"/>
+      <c r="AD121" s="2"/>
+      <c r="AE121" s="2"/>
+      <c r="AF121" s="2"/>
+      <c r="AG121" s="2"/>
+      <c r="AH121" s="2"/>
+      <c r="AI121" s="2"/>
+      <c r="AJ121" s="2"/>
+      <c r="AK121" s="2"/>
+      <c r="AL121" s="2"/>
+      <c r="AM121" s="2"/>
+      <c r="AN121" s="2"/>
+      <c r="AO121" s="2"/>
+      <c r="AP121" s="2"/>
+      <c r="AQ121" s="2"/>
+      <c r="AR121" s="2"/>
+      <c r="AS121" s="2"/>
+      <c r="AT121" s="2"/>
+    </row>
+    <row r="122" spans="7:46" x14ac:dyDescent="0.3">
+      <c r="G122" s="2"/>
+      <c r="H122" s="2"/>
+      <c r="I122" s="2"/>
+      <c r="J122" s="2"/>
+      <c r="K122" s="2"/>
+      <c r="L122" s="2"/>
+      <c r="M122" s="2"/>
+      <c r="N122" s="2"/>
+      <c r="O122" s="2"/>
+      <c r="P122" s="2"/>
+      <c r="Q122" s="2"/>
+      <c r="R122" s="2"/>
+      <c r="S122" s="2"/>
+      <c r="T122" s="2"/>
+      <c r="U122" s="2"/>
+      <c r="V122" s="2"/>
+      <c r="W122" s="2"/>
+      <c r="X122" s="2"/>
+      <c r="Y122" s="2"/>
+      <c r="Z122" s="2"/>
+      <c r="AA122" s="2"/>
+      <c r="AB122" s="2"/>
+      <c r="AC122" s="2"/>
+      <c r="AD122" s="2"/>
+      <c r="AE122" s="2"/>
+      <c r="AF122" s="2"/>
+      <c r="AG122" s="2"/>
+      <c r="AH122" s="2"/>
+      <c r="AI122" s="2"/>
+      <c r="AJ122" s="2"/>
+      <c r="AK122" s="2"/>
+      <c r="AL122" s="2"/>
+      <c r="AM122" s="2"/>
+      <c r="AN122" s="2"/>
+      <c r="AO122" s="2"/>
+      <c r="AP122" s="2"/>
+      <c r="AQ122" s="2"/>
+      <c r="AR122" s="2"/>
+      <c r="AS122" s="2"/>
+      <c r="AT122" s="2"/>
+    </row>
+    <row r="123" spans="7:46" x14ac:dyDescent="0.3">
+      <c r="G123" s="2"/>
+      <c r="H123" s="2"/>
+      <c r="I123" s="2"/>
+      <c r="J123" s="2"/>
+      <c r="K123" s="2"/>
+      <c r="L123" s="2"/>
+      <c r="M123" s="2"/>
+      <c r="N123" s="2"/>
+      <c r="O123" s="2"/>
+      <c r="P123" s="2"/>
+      <c r="Q123" s="2"/>
+      <c r="R123" s="2"/>
+      <c r="S123" s="2"/>
+      <c r="T123" s="2"/>
+      <c r="U123" s="2"/>
+      <c r="V123" s="2"/>
+      <c r="W123" s="2"/>
+      <c r="X123" s="2"/>
+      <c r="Y123" s="2"/>
+      <c r="Z123" s="2"/>
+      <c r="AA123" s="2"/>
+      <c r="AB123" s="2"/>
+      <c r="AC123" s="2"/>
+      <c r="AD123" s="2"/>
+      <c r="AE123" s="2"/>
+      <c r="AF123" s="2"/>
+      <c r="AG123" s="2"/>
+      <c r="AH123" s="2"/>
+      <c r="AI123" s="2"/>
+      <c r="AJ123" s="2"/>
+      <c r="AK123" s="2"/>
+      <c r="AL123" s="2"/>
+      <c r="AM123" s="2"/>
+      <c r="AN123" s="2"/>
+      <c r="AO123" s="2"/>
+      <c r="AP123" s="2"/>
+      <c r="AQ123" s="2"/>
+      <c r="AR123" s="2"/>
+      <c r="AS123" s="2"/>
+      <c r="AT123" s="2"/>
+    </row>
+    <row r="124" spans="7:46" x14ac:dyDescent="0.3">
+      <c r="G124" s="2"/>
+      <c r="H124" s="2"/>
+      <c r="I124" s="2"/>
+      <c r="J124" s="2"/>
+      <c r="K124" s="2"/>
+      <c r="L124" s="2"/>
+      <c r="M124" s="2"/>
+      <c r="N124" s="2"/>
+      <c r="O124" s="2"/>
+      <c r="P124" s="2"/>
+      <c r="Q124" s="2"/>
+      <c r="R124" s="2"/>
+      <c r="S124" s="2"/>
+      <c r="T124" s="2"/>
+      <c r="U124" s="2"/>
+      <c r="V124" s="2"/>
+      <c r="W124" s="2"/>
+      <c r="X124" s="2"/>
+      <c r="Y124" s="2"/>
+      <c r="Z124" s="2"/>
+      <c r="AA124" s="2"/>
+      <c r="AB124" s="2"/>
+      <c r="AC124" s="2"/>
+      <c r="AD124" s="2"/>
+      <c r="AE124" s="2"/>
+      <c r="AF124" s="2"/>
+      <c r="AG124" s="2"/>
+      <c r="AH124" s="2"/>
+      <c r="AI124" s="2"/>
+      <c r="AJ124" s="2"/>
+      <c r="AK124" s="2"/>
+      <c r="AL124" s="2"/>
+      <c r="AM124" s="2"/>
+      <c r="AN124" s="2"/>
+      <c r="AO124" s="2"/>
+      <c r="AP124" s="2"/>
+      <c r="AQ124" s="2"/>
+      <c r="AR124" s="2"/>
+      <c r="AS124" s="2"/>
+      <c r="AT124" s="2"/>
+    </row>
+    <row r="125" spans="7:46" x14ac:dyDescent="0.3">
+      <c r="G125" s="2"/>
+      <c r="H125" s="2"/>
+      <c r="I125" s="2"/>
+      <c r="J125" s="2"/>
+      <c r="K125" s="2"/>
+      <c r="L125" s="2"/>
+      <c r="M125" s="2"/>
+      <c r="N125" s="2"/>
+      <c r="O125" s="2"/>
+      <c r="P125" s="2"/>
+      <c r="Q125" s="2"/>
+      <c r="R125" s="2"/>
+      <c r="S125" s="2"/>
+      <c r="T125" s="2"/>
+      <c r="U125" s="2"/>
+      <c r="V125" s="2"/>
+      <c r="W125" s="2"/>
+      <c r="X125" s="2"/>
+      <c r="Y125" s="2"/>
+      <c r="Z125" s="2"/>
+      <c r="AA125" s="2"/>
+      <c r="AB125" s="2"/>
+      <c r="AC125" s="2"/>
+      <c r="AD125" s="2"/>
+      <c r="AE125" s="2"/>
+      <c r="AF125" s="2"/>
+      <c r="AG125" s="2"/>
+      <c r="AH125" s="2"/>
+      <c r="AI125" s="2"/>
+      <c r="AJ125" s="2"/>
+      <c r="AK125" s="2"/>
+      <c r="AL125" s="2"/>
+      <c r="AM125" s="2"/>
+      <c r="AN125" s="2"/>
+      <c r="AO125" s="2"/>
+      <c r="AP125" s="2"/>
+      <c r="AQ125" s="2"/>
+      <c r="AR125" s="2"/>
+      <c r="AS125" s="2"/>
+      <c r="AT125" s="2"/>
+    </row>
+    <row r="126" spans="7:46" x14ac:dyDescent="0.3">
+      <c r="G126" s="2"/>
+      <c r="H126" s="2"/>
+      <c r="I126" s="2"/>
+      <c r="J126" s="2"/>
+      <c r="K126" s="2"/>
+      <c r="L126" s="2"/>
+      <c r="M126" s="2"/>
+      <c r="N126" s="2"/>
+      <c r="O126" s="2"/>
+      <c r="P126" s="2"/>
+      <c r="Q126" s="2"/>
+      <c r="R126" s="2"/>
+      <c r="S126" s="2"/>
+      <c r="T126" s="2"/>
+      <c r="U126" s="2"/>
+      <c r="V126" s="2"/>
+      <c r="W126" s="2"/>
+      <c r="X126" s="2"/>
+      <c r="Y126" s="2"/>
+      <c r="Z126" s="2"/>
+      <c r="AA126" s="2"/>
+      <c r="AB126" s="2"/>
+      <c r="AC126" s="2"/>
+      <c r="AD126" s="2"/>
+      <c r="AE126" s="2"/>
+      <c r="AF126" s="2"/>
+      <c r="AG126" s="2"/>
+      <c r="AH126" s="2"/>
+      <c r="AI126" s="2"/>
+      <c r="AJ126" s="2"/>
+      <c r="AK126" s="2"/>
+      <c r="AL126" s="2"/>
+      <c r="AM126" s="2"/>
+      <c r="AN126" s="2"/>
+      <c r="AO126" s="2"/>
+      <c r="AP126" s="2"/>
+      <c r="AQ126" s="2"/>
+      <c r="AR126" s="2"/>
+      <c r="AS126" s="2"/>
+      <c r="AT126" s="2"/>
+    </row>
+    <row r="127" spans="7:46" x14ac:dyDescent="0.3">
+      <c r="G127" s="2"/>
+      <c r="H127" s="2"/>
+      <c r="I127" s="2"/>
+      <c r="J127" s="2"/>
+      <c r="K127" s="2"/>
+      <c r="L127" s="2"/>
+      <c r="M127" s="2"/>
+      <c r="N127" s="2"/>
+      <c r="O127" s="2"/>
+      <c r="P127" s="2"/>
+      <c r="Q127" s="2"/>
+      <c r="R127" s="2"/>
+      <c r="S127" s="2"/>
+      <c r="T127" s="2"/>
+      <c r="U127" s="2"/>
+      <c r="V127" s="2"/>
+      <c r="W127" s="2"/>
+      <c r="X127" s="2"/>
+      <c r="Y127" s="2"/>
+      <c r="Z127" s="2"/>
+      <c r="AA127" s="2"/>
+      <c r="AB127" s="2"/>
+      <c r="AC127" s="2"/>
+      <c r="AD127" s="2"/>
+      <c r="AE127" s="2"/>
+      <c r="AF127" s="2"/>
+      <c r="AG127" s="2"/>
+      <c r="AH127" s="2"/>
+      <c r="AI127" s="2"/>
+      <c r="AJ127" s="2"/>
+      <c r="AK127" s="2"/>
+      <c r="AL127" s="2"/>
+      <c r="AM127" s="2"/>
+      <c r="AN127" s="2"/>
+      <c r="AO127" s="2"/>
+      <c r="AP127" s="2"/>
+      <c r="AQ127" s="2"/>
+      <c r="AR127" s="2"/>
+      <c r="AS127" s="2"/>
+      <c r="AT127" s="2"/>
+    </row>
+    <row r="128" spans="7:46" x14ac:dyDescent="0.3">
+      <c r="G128" s="2"/>
+      <c r="H128" s="2"/>
+      <c r="I128" s="2"/>
+      <c r="J128" s="2"/>
+      <c r="K128" s="2"/>
+      <c r="L128" s="2"/>
+      <c r="M128" s="2"/>
+      <c r="N128" s="2"/>
+      <c r="O128" s="2"/>
+      <c r="P128" s="2"/>
+      <c r="Q128" s="2"/>
+      <c r="R128" s="2"/>
+      <c r="S128" s="2"/>
+      <c r="T128" s="2"/>
+      <c r="U128" s="2"/>
+      <c r="V128" s="2"/>
+      <c r="W128" s="2"/>
+      <c r="X128" s="2"/>
+      <c r="Y128" s="2"/>
+      <c r="Z128" s="2"/>
+      <c r="AA128" s="2"/>
+      <c r="AB128" s="2"/>
+      <c r="AC128" s="2"/>
+      <c r="AD128" s="2"/>
+      <c r="AE128" s="2"/>
+      <c r="AF128" s="2"/>
+      <c r="AG128" s="2"/>
+      <c r="AH128" s="2"/>
+      <c r="AI128" s="2"/>
+      <c r="AJ128" s="2"/>
+      <c r="AK128" s="2"/>
+      <c r="AL128" s="2"/>
+      <c r="AM128" s="2"/>
+      <c r="AN128" s="2"/>
+      <c r="AO128" s="2"/>
+      <c r="AP128" s="2"/>
+      <c r="AQ128" s="2"/>
+      <c r="AR128" s="2"/>
+      <c r="AS128" s="2"/>
+      <c r="AT128" s="2"/>
+    </row>
+    <row r="129" spans="7:46" x14ac:dyDescent="0.3">
+      <c r="G129" s="2"/>
+      <c r="H129" s="2"/>
+      <c r="I129" s="2"/>
+      <c r="J129" s="2"/>
+      <c r="K129" s="2"/>
+      <c r="L129" s="2"/>
+      <c r="M129" s="2"/>
+      <c r="N129" s="2"/>
+      <c r="O129" s="2"/>
+      <c r="P129" s="2"/>
+      <c r="Q129" s="2"/>
+      <c r="R129" s="2"/>
+      <c r="S129" s="2"/>
+      <c r="T129" s="2"/>
+      <c r="U129" s="2"/>
+      <c r="V129" s="2"/>
+      <c r="W129" s="2"/>
+      <c r="X129" s="2"/>
+      <c r="Y129" s="2"/>
+      <c r="Z129" s="2"/>
+      <c r="AA129" s="2"/>
+      <c r="AB129" s="2"/>
+      <c r="AC129" s="2"/>
+      <c r="AD129" s="2"/>
+      <c r="AE129" s="2"/>
+      <c r="AF129" s="2"/>
+      <c r="AG129" s="2"/>
+      <c r="AH129" s="2"/>
+      <c r="AI129" s="2"/>
+      <c r="AJ129" s="2"/>
+      <c r="AK129" s="2"/>
+      <c r="AL129" s="2"/>
+      <c r="AM129" s="2"/>
+      <c r="AN129" s="2"/>
+      <c r="AO129" s="2"/>
+      <c r="AP129" s="2"/>
+      <c r="AQ129" s="2"/>
+      <c r="AR129" s="2"/>
+      <c r="AS129" s="2"/>
+      <c r="AT129" s="2"/>
+    </row>
+    <row r="130" spans="7:46" x14ac:dyDescent="0.3">
+      <c r="G130" s="2"/>
+      <c r="H130" s="2"/>
+      <c r="I130" s="2"/>
+      <c r="J130" s="2"/>
+      <c r="K130" s="2"/>
+      <c r="L130" s="2"/>
+      <c r="M130" s="2"/>
+      <c r="N130" s="2"/>
+      <c r="O130" s="2"/>
+      <c r="P130" s="2"/>
+      <c r="Q130" s="2"/>
+      <c r="R130" s="2"/>
+      <c r="S130" s="2"/>
+      <c r="T130" s="2"/>
+      <c r="U130" s="2"/>
+      <c r="V130" s="2"/>
+      <c r="W130" s="2"/>
+      <c r="X130" s="2"/>
+      <c r="Y130" s="2"/>
+      <c r="Z130" s="2"/>
+      <c r="AA130" s="2"/>
+      <c r="AB130" s="2"/>
+      <c r="AC130" s="2"/>
+      <c r="AD130" s="2"/>
+      <c r="AE130" s="2"/>
+      <c r="AF130" s="2"/>
+      <c r="AG130" s="2"/>
+      <c r="AH130" s="2"/>
+      <c r="AI130" s="2"/>
+      <c r="AJ130" s="2"/>
+      <c r="AK130" s="2"/>
+      <c r="AL130" s="2"/>
+      <c r="AM130" s="2"/>
+      <c r="AN130" s="2"/>
+      <c r="AO130" s="2"/>
+      <c r="AP130" s="2"/>
+      <c r="AQ130" s="2"/>
+      <c r="AR130" s="2"/>
+      <c r="AS130" s="2"/>
+      <c r="AT130" s="2"/>
+    </row>
+    <row r="131" spans="7:46" x14ac:dyDescent="0.3">
+      <c r="G131" s="2"/>
+      <c r="H131" s="2"/>
+      <c r="I131" s="2"/>
+      <c r="J131" s="2"/>
+      <c r="K131" s="2"/>
+      <c r="L131" s="2"/>
+      <c r="M131" s="2"/>
+      <c r="N131" s="2"/>
+      <c r="O131" s="2"/>
+      <c r="P131" s="2"/>
+      <c r="Q131" s="2"/>
+      <c r="R131" s="2"/>
+      <c r="S131" s="2"/>
+      <c r="T131" s="2"/>
+      <c r="U131" s="2"/>
+      <c r="V131" s="2"/>
+      <c r="W131" s="2"/>
+      <c r="X131" s="2"/>
+      <c r="Y131" s="2"/>
+      <c r="Z131" s="2"/>
+      <c r="AA131" s="2"/>
+      <c r="AB131" s="2"/>
+      <c r="AC131" s="2"/>
+      <c r="AD131" s="2"/>
+      <c r="AE131" s="2"/>
+      <c r="AF131" s="2"/>
+      <c r="AG131" s="2"/>
+      <c r="AH131" s="2"/>
+      <c r="AI131" s="2"/>
+      <c r="AJ131" s="2"/>
+      <c r="AK131" s="2"/>
+      <c r="AL131" s="2"/>
+      <c r="AM131" s="2"/>
+      <c r="AN131" s="2"/>
+      <c r="AO131" s="2"/>
+      <c r="AP131" s="2"/>
+      <c r="AQ131" s="2"/>
+      <c r="AR131" s="2"/>
+      <c r="AS131" s="2"/>
+      <c r="AT131" s="2"/>
+    </row>
+    <row r="132" spans="7:46" x14ac:dyDescent="0.3">
+      <c r="G132" s="2"/>
+      <c r="H132" s="2"/>
+      <c r="I132" s="2"/>
+      <c r="J132" s="2"/>
+      <c r="K132" s="2"/>
+      <c r="L132" s="2"/>
+      <c r="M132" s="2"/>
+      <c r="N132" s="2"/>
+      <c r="O132" s="2"/>
+      <c r="P132" s="2"/>
+      <c r="Q132" s="2"/>
+      <c r="R132" s="2"/>
+      <c r="S132" s="2"/>
+      <c r="T132" s="2"/>
+      <c r="U132" s="2"/>
+      <c r="V132" s="2"/>
+      <c r="W132" s="2"/>
+      <c r="X132" s="2"/>
+      <c r="Y132" s="2"/>
+      <c r="Z132" s="2"/>
+      <c r="AA132" s="2"/>
+      <c r="AB132" s="2"/>
+      <c r="AC132" s="2"/>
+      <c r="AD132" s="2"/>
+      <c r="AE132" s="2"/>
+      <c r="AF132" s="2"/>
+      <c r="AG132" s="2"/>
+      <c r="AH132" s="2"/>
+      <c r="AI132" s="2"/>
+      <c r="AJ132" s="2"/>
+      <c r="AK132" s="2"/>
+      <c r="AL132" s="2"/>
+      <c r="AM132" s="2"/>
+      <c r="AN132" s="2"/>
+      <c r="AO132" s="2"/>
+      <c r="AP132" s="2"/>
+      <c r="AQ132" s="2"/>
+      <c r="AR132" s="2"/>
+      <c r="AS132" s="2"/>
+      <c r="AT132" s="2"/>
+    </row>
+    <row r="133" spans="7:46" x14ac:dyDescent="0.3">
+      <c r="G133" s="2"/>
+      <c r="H133" s="2"/>
+      <c r="I133" s="2"/>
+      <c r="J133" s="2"/>
+      <c r="K133" s="2"/>
+      <c r="L133" s="2"/>
+      <c r="M133" s="2"/>
+      <c r="N133" s="2"/>
+      <c r="O133" s="2"/>
+      <c r="P133" s="2"/>
+      <c r="Q133" s="2"/>
+      <c r="R133" s="2"/>
+      <c r="S133" s="2"/>
+      <c r="T133" s="2"/>
+      <c r="U133" s="2"/>
+      <c r="V133" s="2"/>
+      <c r="W133" s="2"/>
+      <c r="X133" s="2"/>
+      <c r="Y133" s="2"/>
+      <c r="Z133" s="2"/>
+      <c r="AA133" s="2"/>
+      <c r="AB133" s="2"/>
+      <c r="AC133" s="2"/>
+      <c r="AD133" s="2"/>
+      <c r="AE133" s="2"/>
+      <c r="AF133" s="2"/>
+      <c r="AG133" s="2"/>
+      <c r="AH133" s="2"/>
+      <c r="AI133" s="2"/>
+      <c r="AJ133" s="2"/>
+      <c r="AK133" s="2"/>
+      <c r="AL133" s="2"/>
+      <c r="AM133" s="2"/>
+      <c r="AN133" s="2"/>
+      <c r="AO133" s="2"/>
+      <c r="AP133" s="2"/>
+      <c r="AQ133" s="2"/>
+      <c r="AR133" s="2"/>
+      <c r="AS133" s="2"/>
+      <c r="AT133" s="2"/>
+    </row>
+    <row r="134" spans="7:46" x14ac:dyDescent="0.3">
+      <c r="G134" s="2"/>
+      <c r="H134" s="2"/>
+      <c r="I134" s="2"/>
+      <c r="J134" s="2"/>
+      <c r="K134" s="2"/>
+      <c r="L134" s="2"/>
+      <c r="M134" s="2"/>
+      <c r="N134" s="2"/>
+      <c r="O134" s="2"/>
+      <c r="P134" s="2"/>
+      <c r="Q134" s="2"/>
+      <c r="R134" s="2"/>
+      <c r="S134" s="2"/>
+      <c r="T134" s="2"/>
+      <c r="U134" s="2"/>
+      <c r="V134" s="2"/>
+      <c r="W134" s="2"/>
+      <c r="X134" s="2"/>
+      <c r="Y134" s="2"/>
+      <c r="Z134" s="2"/>
+      <c r="AA134" s="2"/>
+      <c r="AB134" s="2"/>
+      <c r="AC134" s="2"/>
+      <c r="AD134" s="2"/>
+      <c r="AE134" s="2"/>
+      <c r="AF134" s="2"/>
+      <c r="AG134" s="2"/>
+      <c r="AH134" s="2"/>
+      <c r="AI134" s="2"/>
+      <c r="AJ134" s="2"/>
+      <c r="AK134" s="2"/>
+      <c r="AL134" s="2"/>
+      <c r="AM134" s="2"/>
+      <c r="AN134" s="2"/>
+      <c r="AO134" s="2"/>
+      <c r="AP134" s="2"/>
+      <c r="AQ134" s="2"/>
+      <c r="AR134" s="2"/>
+      <c r="AS134" s="2"/>
+      <c r="AT134" s="2"/>
+    </row>
+    <row r="135" spans="7:46" x14ac:dyDescent="0.3">
+      <c r="G135" s="2"/>
+      <c r="H135" s="2"/>
+      <c r="I135" s="2"/>
+      <c r="J135" s="2"/>
+      <c r="K135" s="2"/>
+      <c r="L135" s="2"/>
+      <c r="M135" s="2"/>
+      <c r="N135" s="2"/>
+      <c r="O135" s="2"/>
+      <c r="P135" s="2"/>
+      <c r="Q135" s="2"/>
+      <c r="R135" s="2"/>
+      <c r="S135" s="2"/>
+      <c r="T135" s="2"/>
+      <c r="U135" s="2"/>
+      <c r="V135" s="2"/>
+      <c r="W135" s="2"/>
+      <c r="X135" s="2"/>
+      <c r="Y135" s="2"/>
+      <c r="Z135" s="2"/>
+      <c r="AA135" s="2"/>
+      <c r="AB135" s="2"/>
+      <c r="AC135" s="2"/>
+      <c r="AD135" s="2"/>
+      <c r="AE135" s="2"/>
+      <c r="AF135" s="2"/>
+      <c r="AG135" s="2"/>
+      <c r="AH135" s="2"/>
+      <c r="AI135" s="2"/>
+      <c r="AJ135" s="2"/>
+      <c r="AK135" s="2"/>
+      <c r="AL135" s="2"/>
+      <c r="AM135" s="2"/>
+      <c r="AN135" s="2"/>
+      <c r="AO135" s="2"/>
+      <c r="AP135" s="2"/>
+      <c r="AQ135" s="2"/>
+      <c r="AR135" s="2"/>
+      <c r="AS135" s="2"/>
+      <c r="AT135" s="2"/>
+    </row>
+    <row r="136" spans="7:46" x14ac:dyDescent="0.3">
+      <c r="G136" s="2"/>
+      <c r="H136" s="2"/>
+      <c r="I136" s="2"/>
+      <c r="J136" s="2"/>
+      <c r="K136" s="2"/>
+      <c r="L136" s="2"/>
+      <c r="M136" s="2"/>
+      <c r="N136" s="2"/>
+      <c r="O136" s="2"/>
+      <c r="P136" s="2"/>
+      <c r="Q136" s="2"/>
+      <c r="R136" s="2"/>
+      <c r="S136" s="2"/>
+      <c r="T136" s="2"/>
+      <c r="U136" s="2"/>
+      <c r="V136" s="2"/>
+      <c r="W136" s="2"/>
+      <c r="X136" s="2"/>
+      <c r="Y136" s="2"/>
+      <c r="Z136" s="2"/>
+      <c r="AA136" s="2"/>
+      <c r="AB136" s="2"/>
+      <c r="AC136" s="2"/>
+      <c r="AD136" s="2"/>
+      <c r="AE136" s="2"/>
+      <c r="AF136" s="2"/>
+      <c r="AG136" s="2"/>
+      <c r="AH136" s="2"/>
+      <c r="AI136" s="2"/>
+      <c r="AJ136" s="2"/>
+      <c r="AK136" s="2"/>
+      <c r="AL136" s="2"/>
+      <c r="AM136" s="2"/>
+      <c r="AN136" s="2"/>
+      <c r="AO136" s="2"/>
+      <c r="AP136" s="2"/>
+      <c r="AQ136" s="2"/>
+      <c r="AR136" s="2"/>
+      <c r="AS136" s="2"/>
+      <c r="AT136" s="2"/>
+    </row>
+    <row r="137" spans="7:46" x14ac:dyDescent="0.3">
+      <c r="G137" s="2"/>
+      <c r="H137" s="2"/>
+      <c r="I137" s="2"/>
+      <c r="J137" s="2"/>
+      <c r="K137" s="2"/>
+      <c r="L137" s="2"/>
+      <c r="M137" s="2"/>
+      <c r="N137" s="2"/>
+      <c r="O137" s="2"/>
+      <c r="P137" s="2"/>
+      <c r="Q137" s="2"/>
+      <c r="R137" s="2"/>
+      <c r="S137" s="2"/>
+      <c r="T137" s="2"/>
+      <c r="U137" s="2"/>
+      <c r="V137" s="2"/>
+      <c r="W137" s="2"/>
+      <c r="X137" s="2"/>
+      <c r="Y137" s="2"/>
+      <c r="Z137" s="2"/>
+      <c r="AA137" s="2"/>
+      <c r="AB137" s="2"/>
+      <c r="AC137" s="2"/>
+      <c r="AD137" s="2"/>
+      <c r="AE137" s="2"/>
+      <c r="AF137" s="2"/>
+      <c r="AG137" s="2"/>
+      <c r="AH137" s="2"/>
+      <c r="AI137" s="2"/>
+      <c r="AJ137" s="2"/>
+      <c r="AK137" s="2"/>
+      <c r="AL137" s="2"/>
+      <c r="AM137" s="2"/>
+      <c r="AN137" s="2"/>
+      <c r="AO137" s="2"/>
+      <c r="AP137" s="2"/>
+      <c r="AQ137" s="2"/>
+      <c r="AR137" s="2"/>
+      <c r="AS137" s="2"/>
+      <c r="AT137" s="2"/>
+    </row>
+    <row r="138" spans="7:46" x14ac:dyDescent="0.3">
+      <c r="G138" s="2"/>
+      <c r="H138" s="2"/>
+      <c r="I138" s="2"/>
+      <c r="J138" s="2"/>
+      <c r="K138" s="2"/>
+      <c r="L138" s="2"/>
+      <c r="M138" s="2"/>
+      <c r="N138" s="2"/>
+      <c r="O138" s="2"/>
+      <c r="P138" s="2"/>
+      <c r="Q138" s="2"/>
+      <c r="R138" s="2"/>
+      <c r="S138" s="2"/>
+      <c r="T138" s="2"/>
+      <c r="U138" s="2"/>
+      <c r="V138" s="2"/>
+      <c r="W138" s="2"/>
+      <c r="X138" s="2"/>
+      <c r="Y138" s="2"/>
+      <c r="Z138" s="2"/>
+      <c r="AA138" s="2"/>
+      <c r="AB138" s="2"/>
+      <c r="AC138" s="2"/>
+      <c r="AD138" s="2"/>
+      <c r="AE138" s="2"/>
+      <c r="AF138" s="2"/>
+      <c r="AG138" s="2"/>
+      <c r="AH138" s="2"/>
+      <c r="AI138" s="2"/>
+      <c r="AJ138" s="2"/>
+      <c r="AK138" s="2"/>
+      <c r="AL138" s="2"/>
+      <c r="AM138" s="2"/>
+      <c r="AN138" s="2"/>
+      <c r="AO138" s="2"/>
+      <c r="AP138" s="2"/>
+      <c r="AQ138" s="2"/>
+      <c r="AR138" s="2"/>
+      <c r="AS138" s="2"/>
+      <c r="AT138" s="2"/>
+    </row>
+    <row r="139" spans="7:46" x14ac:dyDescent="0.3">
+      <c r="G139" s="2"/>
+      <c r="H139" s="2"/>
+      <c r="I139" s="2"/>
+      <c r="J139" s="2"/>
+      <c r="K139" s="2"/>
+      <c r="L139" s="2"/>
+      <c r="M139" s="2"/>
+      <c r="N139" s="2"/>
+      <c r="O139" s="2"/>
+      <c r="P139" s="2"/>
+      <c r="Q139" s="2"/>
+      <c r="R139" s="2"/>
+      <c r="S139" s="2"/>
+      <c r="T139" s="2"/>
+      <c r="U139" s="2"/>
+      <c r="V139" s="2"/>
+      <c r="W139" s="2"/>
+      <c r="X139" s="2"/>
+      <c r="Y139" s="2"/>
+      <c r="Z139" s="2"/>
+      <c r="AA139" s="2"/>
+      <c r="AB139" s="2"/>
+      <c r="AC139" s="2"/>
+      <c r="AD139" s="2"/>
+      <c r="AE139" s="2"/>
+      <c r="AF139" s="2"/>
+      <c r="AG139" s="2"/>
+      <c r="AH139" s="2"/>
+      <c r="AI139" s="2"/>
+      <c r="AJ139" s="2"/>
+      <c r="AK139" s="2"/>
+      <c r="AL139" s="2"/>
+      <c r="AM139" s="2"/>
+      <c r="AN139" s="2"/>
+      <c r="AO139" s="2"/>
+      <c r="AP139" s="2"/>
+      <c r="AQ139" s="2"/>
+      <c r="AR139" s="2"/>
+      <c r="AS139" s="2"/>
+      <c r="AT139" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4082,21 +6391,21 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="52.28515625" customWidth="1"/>
+    <col min="1" max="1" width="52.33203125" customWidth="1"/>
     <col min="2" max="2" width="53" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>105</v>
       </c>
@@ -4104,17 +6413,17 @@
         <v>2700000</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>109</v>
       </c>
@@ -4122,7 +6431,7 @@
         <v>123000</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>107</v>
       </c>
@@ -4140,24 +6449,25 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A193714-DD7A-459A-8C67-E4D8B240C94F}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="50.5703125" customWidth="1"/>
-    <col min="3" max="3" width="83.140625" customWidth="1"/>
+    <col min="1" max="1" width="69.109375" customWidth="1"/>
+    <col min="2" max="2" width="50.5546875" customWidth="1"/>
+    <col min="3" max="3" width="83.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>115</v>
       </c>
@@ -4169,13 +6479,144 @@
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>117</v>
       </c>
     </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>154</v>
+      </c>
+      <c r="B8">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>156</v>
+      </c>
+      <c r="B9">
+        <v>3474758</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>157</v>
+      </c>
+      <c r="B10">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>158</v>
+      </c>
+      <c r="B11">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>170</v>
+      </c>
+      <c r="B13">
+        <f>(1*B10+5*B11+(25*5+3)*B8)/(1024*1024*1024)</f>
+        <v>2.6530586183071136E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>169</v>
+      </c>
+      <c r="B20">
+        <f>5*960*B9/(1024*1024*1024)</f>
+        <v>15.533378720283508</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>165</v>
+      </c>
+      <c r="B24">
+        <f>B20+5*960*(B9)/(1024*1024*1024)</f>
+        <v>31.066757440567017</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>166</v>
+      </c>
+      <c r="B25">
+        <f>B24+960*5*B9/(1024*1024*1024)</f>
+        <v>46.600136160850525</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>167</v>
+      </c>
+      <c r="B26">
+        <f>B25+B9*5*960/(1024*1024*1024)</f>
+        <v>62.133514881134033</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>168</v>
+      </c>
+      <c r="B27">
+        <f>B9*960/(1024*1024*1024)</f>
+        <v>3.1066757440567017</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>171</v>
+      </c>
+      <c r="B28">
+        <f>B9*200/(1024*1024*1024)</f>
+        <v>0.64722411334514618</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Documentazione/Stima Dimensionale.xlsx
+++ b/Documentazione/Stima Dimensionale.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\BIG-DATA-MANAGEMENT\Documentazione\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documenti\Big Data Management Progetto\BIG-DATA-MANAGEMENT\Documentazione\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFC7A5CB-853C-44AF-B0FA-83B4FCF9D6DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D96F78D6-383E-424A-B03D-548076E402D8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{4563AA14-1549-40CC-9750-27BCFC0E19C8}"/>
   </bookViews>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="173">
   <si>
     <t>Professore/Studente (wp_users)</t>
   </si>
@@ -613,6 +613,9 @@
   </si>
   <si>
     <t>200 ore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">totale lezione + contenuto </t>
   </si>
 </sst>
 </file>
@@ -678,7 +681,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
@@ -709,7 +712,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -872,16 +875,16 @@
                   <c:v>2.6530586183071136E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.533378720283508</c:v>
+                  <c:v>6.343156099319458</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31.066757440567017</c:v>
+                  <c:v>12.686312198638916</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>46.600136160850525</c:v>
+                  <c:v>19.029468297958374</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>62.133514881134033</c:v>
+                  <c:v>25.372624397277832</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1759,14 +1762,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:colOff>1438275</xdr:colOff>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>5661660</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>70485</xdr:colOff>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>148590</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1827,7 +1830,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2125,20 +2128,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AD4317F-1194-4DBE-A226-C8A3F783138C}">
   <dimension ref="A1:W36"/>
   <sheetViews>
-    <sheetView topLeftCell="E4" workbookViewId="0">
+    <sheetView topLeftCell="E13" workbookViewId="0">
       <selection activeCell="I22" sqref="I22:I36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2155,7 +2158,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -2172,7 +2175,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -2189,7 +2192,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -2206,7 +2209,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -2223,7 +2226,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -2240,7 +2243,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
@@ -2257,7 +2260,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
@@ -2274,7 +2277,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
@@ -2291,7 +2294,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>25</v>
       </c>
@@ -2308,7 +2311,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
@@ -2325,7 +2328,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>29</v>
       </c>
@@ -2342,7 +2345,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>31</v>
       </c>
@@ -2359,7 +2362,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>33</v>
       </c>
@@ -2421,7 +2424,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>35</v>
       </c>
@@ -2483,7 +2486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>37</v>
       </c>
@@ -2500,7 +2503,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>39</v>
       </c>
@@ -2517,7 +2520,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="I18" s="2" t="s">
         <v>80</v>
       </c>
@@ -2564,7 +2567,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="I19" s="2">
         <v>1</v>
       </c>
@@ -2611,7 +2614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -2622,7 +2625,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -2635,7 +2638,7 @@
       </c>
       <c r="J22" s="2"/>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -2648,31 +2651,31 @@
       </c>
       <c r="J23" s="2"/>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="I24" s="2" t="s">
         <v>82</v>
       </c>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="I25" s="2" t="s">
         <v>83</v>
       </c>
       <c r="J25" s="2"/>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="I26" s="2" t="s">
         <v>84</v>
       </c>
       <c r="J26" s="2"/>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="I27" s="2" t="s">
         <v>85</v>
       </c>
       <c r="J27" s="2"/>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
         <v>41</v>
       </c>
@@ -2683,7 +2686,7 @@
       </c>
       <c r="J28" s="2"/>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
         <v>42</v>
       </c>
@@ -2694,7 +2697,7 @@
       </c>
       <c r="J29" s="2"/>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
         <v>43</v>
       </c>
@@ -2705,7 +2708,7 @@
       </c>
       <c r="J30" s="2"/>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
         <v>44</v>
       </c>
@@ -2716,7 +2719,7 @@
       </c>
       <c r="J31" s="2"/>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
         <v>45</v>
       </c>
@@ -2727,7 +2730,7 @@
       </c>
       <c r="J32" s="2"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
         <v>46</v>
       </c>
@@ -2738,7 +2741,7 @@
       </c>
       <c r="J33" s="2"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
         <v>47</v>
       </c>
@@ -2749,7 +2752,7 @@
       </c>
       <c r="J34" s="2"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
         <v>48</v>
       </c>
@@ -2760,7 +2763,7 @@
       </c>
       <c r="J35" s="2"/>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
         <v>49</v>
       </c>
@@ -2784,23 +2787,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9EA74DE-5AFB-4B1A-B5BF-A35F66F07F1A}">
   <dimension ref="A1:AT139"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:F5"/>
+    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.44140625" customWidth="1"/>
-    <col min="2" max="2" width="41.33203125" customWidth="1"/>
-    <col min="3" max="3" width="23.109375" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+    <col min="1" max="1" width="35.42578125" customWidth="1"/>
+    <col min="2" max="2" width="41.28515625" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
     <col min="5" max="5" width="30" customWidth="1"/>
-    <col min="6" max="6" width="29.77734375" customWidth="1"/>
-    <col min="7" max="7" width="18.21875" customWidth="1"/>
-    <col min="8" max="8" width="11.44140625" customWidth="1"/>
+    <col min="6" max="6" width="29.7109375" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>53</v>
       </c>
@@ -2814,7 +2817,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2832,7 +2835,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>55</v>
       </c>
@@ -2844,14 +2847,14 @@
       </c>
       <c r="F3">
         <f>SUM(D49,D58,D67)</f>
-        <v>3474758</v>
+        <v>1416564</v>
       </c>
       <c r="G3">
         <f>(25+7)*D13</f>
         <v>34880</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>41</v>
       </c>
@@ -2867,10 +2870,10 @@
       </c>
       <c r="G4">
         <f>960*D49</f>
-        <v>2265840000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1309554240</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>42</v>
       </c>
@@ -2886,14 +2889,14 @@
       </c>
       <c r="G5">
         <f>G4+G3</f>
-        <v>2265874880</v>
+        <v>1309589120</v>
       </c>
       <c r="H5">
         <f>G5/(1024*1024*1024)</f>
-        <v>2.1102604269981384</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1.2196499109268188</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>43</v>
       </c>
@@ -2901,7 +2904,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>44</v>
       </c>
@@ -2909,7 +2912,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>45</v>
       </c>
@@ -2917,7 +2920,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>46</v>
       </c>
@@ -2925,7 +2928,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>47</v>
       </c>
@@ -2933,7 +2936,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>48</v>
       </c>
@@ -2941,7 +2944,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>49</v>
       </c>
@@ -2949,7 +2952,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>111</v>
       </c>
@@ -2958,12 +2961,12 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="2" t="s">
         <v>129</v>
@@ -2972,7 +2975,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="2" t="s">
         <v>120</v>
@@ -2981,7 +2984,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="2" t="s">
         <v>130</v>
@@ -2990,7 +2993,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="2" t="s">
         <v>131</v>
@@ -2999,7 +3002,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="2" t="s">
         <v>132</v>
@@ -3008,7 +3011,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="2" t="s">
         <v>133</v>
@@ -3017,7 +3020,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="2" t="s">
         <v>121</v>
@@ -3026,7 +3029,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="C22" t="s">
         <v>111</v>
@@ -3036,15 +3039,15 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
         <v>55</v>
       </c>
@@ -3052,7 +3055,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
         <v>56</v>
       </c>
@@ -3083,7 +3086,7 @@
       <c r="AA27" s="2"/>
       <c r="AB27" s="2"/>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
         <v>57</v>
       </c>
@@ -3114,7 +3117,7 @@
       <c r="AA28" s="2"/>
       <c r="AB28" s="2"/>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
         <v>58</v>
       </c>
@@ -3145,13 +3148,13 @@
       <c r="AA29" s="2"/>
       <c r="AB29" s="2"/>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C30">
-        <f>1024*1024</f>
-        <v>1048576</v>
+        <f>D58+D67</f>
+        <v>52445</v>
       </c>
       <c r="D30" t="s">
         <v>110</v>
@@ -3182,7 +3185,7 @@
       <c r="AA30" s="2"/>
       <c r="AB30" s="2"/>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
         <v>60</v>
       </c>
@@ -3213,7 +3216,7 @@
       <c r="AA31" s="2"/>
       <c r="AB31" s="2"/>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
         <v>61</v>
       </c>
@@ -3247,7 +3250,7 @@
       <c r="AA32" s="2"/>
       <c r="AB32" s="2"/>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
         <v>62</v>
       </c>
@@ -3278,7 +3281,7 @@
       <c r="AA33" s="2"/>
       <c r="AB33" s="2"/>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
         <v>63</v>
       </c>
@@ -3309,7 +3312,7 @@
       <c r="AA34" s="2"/>
       <c r="AB34" s="2"/>
     </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
         <v>64</v>
       </c>
@@ -3340,7 +3343,7 @@
       <c r="AA35" s="2"/>
       <c r="AB35" s="2"/>
     </row>
-    <row r="36" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
         <v>65</v>
       </c>
@@ -3371,7 +3374,7 @@
       <c r="AA36" s="2"/>
       <c r="AB36" s="2"/>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
         <v>66</v>
       </c>
@@ -3402,7 +3405,7 @@
       <c r="AA37" s="2"/>
       <c r="AB37" s="2"/>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
         <v>67</v>
       </c>
@@ -3433,7 +3436,7 @@
       <c r="AA38" s="2"/>
       <c r="AB38" s="2"/>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
         <v>68</v>
       </c>
@@ -3464,7 +3467,7 @@
       <c r="AA39" s="2"/>
       <c r="AB39" s="2"/>
     </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
         <v>69</v>
       </c>
@@ -3495,7 +3498,7 @@
       <c r="AA40" s="2"/>
       <c r="AB40" s="2"/>
     </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
         <v>70</v>
       </c>
@@ -3526,7 +3529,7 @@
       <c r="AA41" s="2"/>
       <c r="AB41" s="2"/>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
         <v>71</v>
       </c>
@@ -3558,7 +3561,7 @@
       <c r="AA42" s="2"/>
       <c r="AB42" s="2"/>
     </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
         <v>72</v>
       </c>
@@ -3589,7 +3592,7 @@
       <c r="AA43" s="2"/>
       <c r="AB43" s="2"/>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
         <v>73</v>
       </c>
@@ -3620,7 +3623,7 @@
       <c r="AA44" s="2"/>
       <c r="AB44" s="2"/>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
         <v>74</v>
       </c>
@@ -3651,7 +3654,7 @@
       <c r="AA45" s="2"/>
       <c r="AB45" s="2"/>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B46" s="2" t="s">
         <v>75</v>
       </c>
@@ -3682,7 +3685,7 @@
       <c r="AA46" s="2"/>
       <c r="AB46" s="2"/>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B47" s="2" t="s">
         <v>76</v>
       </c>
@@ -3713,7 +3716,7 @@
       <c r="AA47" s="2"/>
       <c r="AB47" s="2"/>
     </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B48" s="2" t="s">
         <v>77</v>
       </c>
@@ -3744,13 +3747,13 @@
       <c r="AA48" s="2"/>
       <c r="AB48" s="2"/>
     </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>111</v>
       </c>
       <c r="D49">
         <f>SUM(C26:C48)</f>
-        <v>2360250</v>
+        <v>1364119</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
@@ -3776,7 +3779,7 @@
       <c r="AA49" s="2"/>
       <c r="AB49" s="2"/>
     </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>134</v>
       </c>
@@ -3804,7 +3807,7 @@
       <c r="AA50" s="2"/>
       <c r="AB50" s="2"/>
     </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
         <v>135</v>
       </c>
@@ -3835,7 +3838,7 @@
       <c r="AA51" s="2"/>
       <c r="AB51" s="2"/>
     </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
         <v>136</v>
       </c>
@@ -3866,7 +3869,7 @@
       <c r="AA52" s="2"/>
       <c r="AB52" s="2"/>
     </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B53" s="2" t="s">
         <v>137</v>
       </c>
@@ -3897,7 +3900,7 @@
       <c r="AA53" s="2"/>
       <c r="AB53" s="2"/>
     </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B54" s="2" t="s">
         <v>138</v>
       </c>
@@ -3928,7 +3931,7 @@
       <c r="AA54" s="2"/>
       <c r="AB54" s="2"/>
     </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B55" s="2" t="s">
         <v>124</v>
       </c>
@@ -3959,7 +3962,7 @@
       <c r="AA55" s="2"/>
       <c r="AB55" s="2"/>
     </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B56" s="2" t="s">
         <v>139</v>
       </c>
@@ -3990,13 +3993,12 @@
       <c r="AA56" s="2"/>
       <c r="AB56" s="2"/>
     </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B57" s="2" t="s">
         <v>140</v>
       </c>
       <c r="C57">
-        <f>1024*1024</f>
-        <v>1048576</v>
+        <v>50000</v>
       </c>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
@@ -4022,11 +4024,11 @@
       <c r="AA57" s="2"/>
       <c r="AB57" s="2"/>
     </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B58" s="2"/>
       <c r="D58">
         <f>SUM(C51:C57)</f>
-        <v>1048645</v>
+        <v>50069</v>
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
@@ -4052,7 +4054,7 @@
       <c r="AA58" s="2"/>
       <c r="AB58" s="2"/>
     </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>141</v>
       </c>
@@ -4081,7 +4083,7 @@
       <c r="AA59" s="2"/>
       <c r="AB59" s="2"/>
     </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B60" s="2" t="s">
         <v>142</v>
       </c>
@@ -4112,7 +4114,7 @@
       <c r="AA60" s="2"/>
       <c r="AB60" s="2"/>
     </row>
-    <row r="61" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B61" s="2" t="s">
         <v>139</v>
       </c>
@@ -4143,7 +4145,7 @@
       <c r="AA61" s="2"/>
       <c r="AB61" s="2"/>
     </row>
-    <row r="62" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B62" s="2" t="s">
         <v>143</v>
       </c>
@@ -4174,12 +4176,12 @@
       <c r="AA62" s="2"/>
       <c r="AB62" s="2"/>
     </row>
-    <row r="63" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B63" s="2" t="s">
         <v>144</v>
       </c>
       <c r="C63">
-        <v>65535</v>
+        <v>2048</v>
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
@@ -4205,7 +4207,7 @@
       <c r="AA63" s="2"/>
       <c r="AB63" s="2"/>
     </row>
-    <row r="64" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B64" s="2" t="s">
         <v>137</v>
       </c>
@@ -4236,7 +4238,7 @@
       <c r="AA64" s="2"/>
       <c r="AB64" s="2"/>
     </row>
-    <row r="65" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B65" s="2" t="s">
         <v>145</v>
       </c>
@@ -4267,7 +4269,7 @@
       <c r="AA65" s="2"/>
       <c r="AB65" s="2"/>
     </row>
-    <row r="66" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B66" s="2" t="s">
         <v>135</v>
       </c>
@@ -4298,14 +4300,14 @@
       <c r="AA66" s="2"/>
       <c r="AB66" s="2"/>
     </row>
-    <row r="67" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B67" s="2"/>
       <c r="C67" t="s">
         <v>111</v>
       </c>
       <c r="D67">
         <f>SUM(C60:C66)</f>
-        <v>65863</v>
+        <v>2376</v>
       </c>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
@@ -4331,7 +4333,7 @@
       <c r="AA67" s="2"/>
       <c r="AB67" s="2"/>
     </row>
-    <row r="68" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>146</v>
       </c>
@@ -4360,7 +4362,7 @@
       <c r="AA68" s="2"/>
       <c r="AB68" s="2"/>
     </row>
-    <row r="69" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B69" s="2" t="s">
         <v>147</v>
       </c>
@@ -4391,7 +4393,7 @@
       <c r="AA69" s="2"/>
       <c r="AB69" s="2"/>
     </row>
-    <row r="70" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B70" s="2" t="s">
         <v>120</v>
       </c>
@@ -4422,7 +4424,7 @@
       <c r="AA70" s="2"/>
       <c r="AB70" s="2"/>
     </row>
-    <row r="71" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B71" s="2" t="s">
         <v>148</v>
       </c>
@@ -4453,7 +4455,7 @@
       <c r="AA71" s="2"/>
       <c r="AB71" s="2"/>
     </row>
-    <row r="72" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B72" s="2" t="s">
         <v>149</v>
       </c>
@@ -4484,7 +4486,7 @@
       <c r="AA72" s="2"/>
       <c r="AB72" s="2"/>
     </row>
-    <row r="73" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B73" s="2" t="s">
         <v>150</v>
       </c>
@@ -4515,7 +4517,7 @@
       <c r="AA73" s="2"/>
       <c r="AB73" s="2"/>
     </row>
-    <row r="74" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B74" s="2"/>
       <c r="C74" t="s">
         <v>111</v>
@@ -4548,7 +4550,7 @@
       <c r="AA74" s="2"/>
       <c r="AB74" s="2"/>
     </row>
-    <row r="75" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>151</v>
       </c>
@@ -4577,7 +4579,7 @@
       <c r="AA75" s="2"/>
       <c r="AB75" s="2"/>
     </row>
-    <row r="76" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B76" s="2" t="s">
         <v>152</v>
       </c>
@@ -4608,7 +4610,7 @@
       <c r="AA76" s="2"/>
       <c r="AB76" s="2"/>
     </row>
-    <row r="77" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B77" s="2" t="s">
         <v>120</v>
       </c>
@@ -4639,7 +4641,7 @@
       <c r="AA77" s="2"/>
       <c r="AB77" s="2"/>
     </row>
-    <row r="78" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>111</v>
       </c>
@@ -4671,7 +4673,7 @@
       <c r="AA78" s="2"/>
       <c r="AB78" s="2"/>
     </row>
-    <row r="79" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>153</v>
       </c>
@@ -4699,7 +4701,7 @@
       <c r="AA79" s="2"/>
       <c r="AB79" s="2"/>
     </row>
-    <row r="80" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>142</v>
       </c>
@@ -4730,7 +4732,7 @@
       <c r="AA80" s="2"/>
       <c r="AB80" s="2"/>
     </row>
-    <row r="81" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>120</v>
       </c>
@@ -4761,7 +4763,7 @@
       <c r="AA81" s="2"/>
       <c r="AB81" s="2"/>
     </row>
-    <row r="82" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:28" x14ac:dyDescent="0.25">
       <c r="D82">
         <f>SUM(C80:C81)</f>
         <v>204</v>
@@ -4790,7 +4792,7 @@
       <c r="AA82" s="2"/>
       <c r="AB82" s="2"/>
     </row>
-    <row r="83" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>79</v>
       </c>
@@ -4818,7 +4820,7 @@
       <c r="AA83" s="2"/>
       <c r="AB83" s="2"/>
     </row>
-    <row r="84" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B84" s="2" t="s">
         <v>80</v>
       </c>
@@ -4849,7 +4851,7 @@
       <c r="AA84" s="2"/>
       <c r="AB84" s="2"/>
     </row>
-    <row r="85" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B85" s="2" t="s">
         <v>81</v>
       </c>
@@ -4880,7 +4882,7 @@
       <c r="AA85" s="2"/>
       <c r="AB85" s="2"/>
     </row>
-    <row r="86" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B86" s="2" t="s">
         <v>82</v>
       </c>
@@ -4911,7 +4913,7 @@
       <c r="AA86" s="2"/>
       <c r="AB86" s="2"/>
     </row>
-    <row r="87" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B87" s="2" t="s">
         <v>83</v>
       </c>
@@ -4942,7 +4944,7 @@
       <c r="AA87" s="2"/>
       <c r="AB87" s="2"/>
     </row>
-    <row r="88" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B88" s="2" t="s">
         <v>84</v>
       </c>
@@ -4973,7 +4975,7 @@
       <c r="AA88" s="2"/>
       <c r="AB88" s="2"/>
     </row>
-    <row r="89" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B89" s="2" t="s">
         <v>85</v>
       </c>
@@ -5004,7 +5006,7 @@
       <c r="AA89" s="2"/>
       <c r="AB89" s="2"/>
     </row>
-    <row r="90" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B90" s="2" t="s">
         <v>86</v>
       </c>
@@ -5035,7 +5037,7 @@
       <c r="AA90" s="2"/>
       <c r="AB90" s="2"/>
     </row>
-    <row r="91" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B91" s="2" t="s">
         <v>87</v>
       </c>
@@ -5066,7 +5068,7 @@
       <c r="AA91" s="2"/>
       <c r="AB91" s="2"/>
     </row>
-    <row r="92" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B92" s="2" t="s">
         <v>88</v>
       </c>
@@ -5097,7 +5099,7 @@
       <c r="AA92" s="2"/>
       <c r="AB92" s="2"/>
     </row>
-    <row r="93" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B93" s="2" t="s">
         <v>89</v>
       </c>
@@ -5128,7 +5130,7 @@
       <c r="AA93" s="2"/>
       <c r="AB93" s="2"/>
     </row>
-    <row r="94" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B94" s="2" t="s">
         <v>90</v>
       </c>
@@ -5159,7 +5161,7 @@
       <c r="AA94" s="2"/>
       <c r="AB94" s="2"/>
     </row>
-    <row r="95" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B95" s="2" t="s">
         <v>91</v>
       </c>
@@ -5190,7 +5192,7 @@
       <c r="AA95" s="2"/>
       <c r="AB95" s="2"/>
     </row>
-    <row r="96" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B96" s="2" t="s">
         <v>92</v>
       </c>
@@ -5221,7 +5223,7 @@
       <c r="AA96" s="2"/>
       <c r="AB96" s="2"/>
     </row>
-    <row r="97" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B97" s="2" t="s">
         <v>93</v>
       </c>
@@ -5252,7 +5254,7 @@
       <c r="AA97" s="2"/>
       <c r="AB97" s="2"/>
     </row>
-    <row r="98" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B98" s="2" t="s">
         <v>94</v>
       </c>
@@ -5283,7 +5285,7 @@
       <c r="AA98" s="2"/>
       <c r="AB98" s="2"/>
     </row>
-    <row r="99" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C99" t="s">
         <v>111</v>
       </c>
@@ -5315,12 +5317,12 @@
       <c r="AA99" s="2"/>
       <c r="AB99" s="2"/>
     </row>
-    <row r="101" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="102" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
         <v>119</v>
       </c>
@@ -5328,7 +5330,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
         <v>120</v>
       </c>
@@ -5336,7 +5338,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="104" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
         <v>121</v>
       </c>
@@ -5344,7 +5346,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="105" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
         <v>122</v>
       </c>
@@ -5352,7 +5354,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="106" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C106" t="s">
         <v>111</v>
       </c>
@@ -5361,7 +5363,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="107" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>123</v>
       </c>
@@ -5372,7 +5374,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
         <v>125</v>
       </c>
@@ -5380,7 +5382,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
         <v>126</v>
       </c>
@@ -5388,7 +5390,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
         <v>127</v>
       </c>
@@ -5396,7 +5398,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="111" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
         <v>119</v>
       </c>
@@ -5404,7 +5406,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C112" t="s">
         <v>111</v>
       </c>
@@ -5413,7 +5415,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="117" spans="7:46" x14ac:dyDescent="0.3">
+    <row r="117" spans="7:46" x14ac:dyDescent="0.25">
       <c r="G117" s="2"/>
       <c r="H117" s="2"/>
       <c r="I117" s="2"/>
@@ -5455,7 +5457,7 @@
       <c r="AS117" s="2"/>
       <c r="AT117" s="2"/>
     </row>
-    <row r="118" spans="7:46" x14ac:dyDescent="0.3">
+    <row r="118" spans="7:46" x14ac:dyDescent="0.25">
       <c r="G118" s="2"/>
       <c r="H118" s="2"/>
       <c r="I118" s="2"/>
@@ -5497,7 +5499,7 @@
       <c r="AS118" s="2"/>
       <c r="AT118" s="2"/>
     </row>
-    <row r="119" spans="7:46" x14ac:dyDescent="0.3">
+    <row r="119" spans="7:46" x14ac:dyDescent="0.25">
       <c r="G119" s="2"/>
       <c r="H119" s="2"/>
       <c r="I119" s="2"/>
@@ -5539,7 +5541,7 @@
       <c r="AS119" s="2"/>
       <c r="AT119" s="2"/>
     </row>
-    <row r="120" spans="7:46" x14ac:dyDescent="0.3">
+    <row r="120" spans="7:46" x14ac:dyDescent="0.25">
       <c r="G120" s="2"/>
       <c r="H120" s="2"/>
       <c r="I120" s="2"/>
@@ -5581,7 +5583,7 @@
       <c r="AS120" s="2"/>
       <c r="AT120" s="2"/>
     </row>
-    <row r="121" spans="7:46" x14ac:dyDescent="0.3">
+    <row r="121" spans="7:46" x14ac:dyDescent="0.25">
       <c r="G121" s="2"/>
       <c r="H121" s="2"/>
       <c r="I121" s="2"/>
@@ -5623,7 +5625,7 @@
       <c r="AS121" s="2"/>
       <c r="AT121" s="2"/>
     </row>
-    <row r="122" spans="7:46" x14ac:dyDescent="0.3">
+    <row r="122" spans="7:46" x14ac:dyDescent="0.25">
       <c r="G122" s="2"/>
       <c r="H122" s="2"/>
       <c r="I122" s="2"/>
@@ -5665,7 +5667,7 @@
       <c r="AS122" s="2"/>
       <c r="AT122" s="2"/>
     </row>
-    <row r="123" spans="7:46" x14ac:dyDescent="0.3">
+    <row r="123" spans="7:46" x14ac:dyDescent="0.25">
       <c r="G123" s="2"/>
       <c r="H123" s="2"/>
       <c r="I123" s="2"/>
@@ -5707,7 +5709,7 @@
       <c r="AS123" s="2"/>
       <c r="AT123" s="2"/>
     </row>
-    <row r="124" spans="7:46" x14ac:dyDescent="0.3">
+    <row r="124" spans="7:46" x14ac:dyDescent="0.25">
       <c r="G124" s="2"/>
       <c r="H124" s="2"/>
       <c r="I124" s="2"/>
@@ -5749,7 +5751,7 @@
       <c r="AS124" s="2"/>
       <c r="AT124" s="2"/>
     </row>
-    <row r="125" spans="7:46" x14ac:dyDescent="0.3">
+    <row r="125" spans="7:46" x14ac:dyDescent="0.25">
       <c r="G125" s="2"/>
       <c r="H125" s="2"/>
       <c r="I125" s="2"/>
@@ -5791,7 +5793,7 @@
       <c r="AS125" s="2"/>
       <c r="AT125" s="2"/>
     </row>
-    <row r="126" spans="7:46" x14ac:dyDescent="0.3">
+    <row r="126" spans="7:46" x14ac:dyDescent="0.25">
       <c r="G126" s="2"/>
       <c r="H126" s="2"/>
       <c r="I126" s="2"/>
@@ -5833,7 +5835,7 @@
       <c r="AS126" s="2"/>
       <c r="AT126" s="2"/>
     </row>
-    <row r="127" spans="7:46" x14ac:dyDescent="0.3">
+    <row r="127" spans="7:46" x14ac:dyDescent="0.25">
       <c r="G127" s="2"/>
       <c r="H127" s="2"/>
       <c r="I127" s="2"/>
@@ -5875,7 +5877,7 @@
       <c r="AS127" s="2"/>
       <c r="AT127" s="2"/>
     </row>
-    <row r="128" spans="7:46" x14ac:dyDescent="0.3">
+    <row r="128" spans="7:46" x14ac:dyDescent="0.25">
       <c r="G128" s="2"/>
       <c r="H128" s="2"/>
       <c r="I128" s="2"/>
@@ -5917,7 +5919,7 @@
       <c r="AS128" s="2"/>
       <c r="AT128" s="2"/>
     </row>
-    <row r="129" spans="7:46" x14ac:dyDescent="0.3">
+    <row r="129" spans="7:46" x14ac:dyDescent="0.25">
       <c r="G129" s="2"/>
       <c r="H129" s="2"/>
       <c r="I129" s="2"/>
@@ -5959,7 +5961,7 @@
       <c r="AS129" s="2"/>
       <c r="AT129" s="2"/>
     </row>
-    <row r="130" spans="7:46" x14ac:dyDescent="0.3">
+    <row r="130" spans="7:46" x14ac:dyDescent="0.25">
       <c r="G130" s="2"/>
       <c r="H130" s="2"/>
       <c r="I130" s="2"/>
@@ -6001,7 +6003,7 @@
       <c r="AS130" s="2"/>
       <c r="AT130" s="2"/>
     </row>
-    <row r="131" spans="7:46" x14ac:dyDescent="0.3">
+    <row r="131" spans="7:46" x14ac:dyDescent="0.25">
       <c r="G131" s="2"/>
       <c r="H131" s="2"/>
       <c r="I131" s="2"/>
@@ -6043,7 +6045,7 @@
       <c r="AS131" s="2"/>
       <c r="AT131" s="2"/>
     </row>
-    <row r="132" spans="7:46" x14ac:dyDescent="0.3">
+    <row r="132" spans="7:46" x14ac:dyDescent="0.25">
       <c r="G132" s="2"/>
       <c r="H132" s="2"/>
       <c r="I132" s="2"/>
@@ -6085,7 +6087,7 @@
       <c r="AS132" s="2"/>
       <c r="AT132" s="2"/>
     </row>
-    <row r="133" spans="7:46" x14ac:dyDescent="0.3">
+    <row r="133" spans="7:46" x14ac:dyDescent="0.25">
       <c r="G133" s="2"/>
       <c r="H133" s="2"/>
       <c r="I133" s="2"/>
@@ -6127,7 +6129,7 @@
       <c r="AS133" s="2"/>
       <c r="AT133" s="2"/>
     </row>
-    <row r="134" spans="7:46" x14ac:dyDescent="0.3">
+    <row r="134" spans="7:46" x14ac:dyDescent="0.25">
       <c r="G134" s="2"/>
       <c r="H134" s="2"/>
       <c r="I134" s="2"/>
@@ -6169,7 +6171,7 @@
       <c r="AS134" s="2"/>
       <c r="AT134" s="2"/>
     </row>
-    <row r="135" spans="7:46" x14ac:dyDescent="0.3">
+    <row r="135" spans="7:46" x14ac:dyDescent="0.25">
       <c r="G135" s="2"/>
       <c r="H135" s="2"/>
       <c r="I135" s="2"/>
@@ -6211,7 +6213,7 @@
       <c r="AS135" s="2"/>
       <c r="AT135" s="2"/>
     </row>
-    <row r="136" spans="7:46" x14ac:dyDescent="0.3">
+    <row r="136" spans="7:46" x14ac:dyDescent="0.25">
       <c r="G136" s="2"/>
       <c r="H136" s="2"/>
       <c r="I136" s="2"/>
@@ -6253,7 +6255,7 @@
       <c r="AS136" s="2"/>
       <c r="AT136" s="2"/>
     </row>
-    <row r="137" spans="7:46" x14ac:dyDescent="0.3">
+    <row r="137" spans="7:46" x14ac:dyDescent="0.25">
       <c r="G137" s="2"/>
       <c r="H137" s="2"/>
       <c r="I137" s="2"/>
@@ -6295,7 +6297,7 @@
       <c r="AS137" s="2"/>
       <c r="AT137" s="2"/>
     </row>
-    <row r="138" spans="7:46" x14ac:dyDescent="0.3">
+    <row r="138" spans="7:46" x14ac:dyDescent="0.25">
       <c r="G138" s="2"/>
       <c r="H138" s="2"/>
       <c r="I138" s="2"/>
@@ -6337,7 +6339,7 @@
       <c r="AS138" s="2"/>
       <c r="AT138" s="2"/>
     </row>
-    <row r="139" spans="7:46" x14ac:dyDescent="0.3">
+    <row r="139" spans="7:46" x14ac:dyDescent="0.25">
       <c r="G139" s="2"/>
       <c r="H139" s="2"/>
       <c r="I139" s="2"/>
@@ -6394,18 +6396,18 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.33203125" customWidth="1"/>
+    <col min="1" max="1" width="52.28515625" customWidth="1"/>
     <col min="2" max="2" width="53" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>105</v>
       </c>
@@ -6413,17 +6415,17 @@
         <v>2700000</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>109</v>
       </c>
@@ -6431,7 +6433,7 @@
         <v>123000</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>107</v>
       </c>
@@ -6451,23 +6453,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A193714-DD7A-459A-8C67-E4D8B240C94F}">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="69.109375" customWidth="1"/>
-    <col min="2" max="2" width="50.5546875" customWidth="1"/>
-    <col min="3" max="3" width="83.109375" customWidth="1"/>
+    <col min="1" max="1" width="69.140625" customWidth="1"/>
+    <col min="2" max="2" width="50.5703125" customWidth="1"/>
+    <col min="3" max="3" width="83.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>115</v>
       </c>
@@ -6479,17 +6481,17 @@
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>154</v>
       </c>
@@ -6497,15 +6499,16 @@
         <v>2210</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="B9">
-        <v>3474758</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+        <f>1416564+2376</f>
+        <v>1418940</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>157</v>
       </c>
@@ -6513,7 +6516,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>158</v>
       </c>
@@ -6521,7 +6524,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>170</v>
       </c>
@@ -6530,88 +6533,88 @@
         <v>2.6530586183071136E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>169</v>
       </c>
       <c r="B20">
         <f>5*960*B9/(1024*1024*1024)</f>
-        <v>15.533378720283508</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+        <v>6.343156099319458</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>165</v>
       </c>
       <c r="B24">
         <f>B20+5*960*(B9)/(1024*1024*1024)</f>
-        <v>31.066757440567017</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+        <v>12.686312198638916</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>166</v>
       </c>
       <c r="B25">
         <f>B24+960*5*B9/(1024*1024*1024)</f>
-        <v>46.600136160850525</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+        <v>19.029468297958374</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>167</v>
       </c>
       <c r="B26">
         <f>B25+B9*5*960/(1024*1024*1024)</f>
-        <v>62.133514881134033</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+        <v>25.372624397277832</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>168</v>
       </c>
       <c r="B27">
         <f>B9*960/(1024*1024*1024)</f>
-        <v>3.1066757440567017</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.2686312198638916</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>171</v>
       </c>
       <c r="B28">
         <f>B9*200/(1024*1024*1024)</f>
-        <v>0.64722411334514618</v>
+        <v>0.26429817080497742</v>
       </c>
     </row>
   </sheetData>
